--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail14 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P18_trail14 Features.xlsx
@@ -6289,7 +6289,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:X43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6300,29 +6300,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="20" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -6343,115 +6341,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -6468,72 +6456,66 @@
         <v>5.044534275403113e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.68408713307373</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-0.364501541586066</v>
+        <v>5.199534706933664e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.02008573481365647</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>5.199534706933664e-06</v>
+        <v>0.1593395415343037</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.02008573481365647</v>
+        <v>0.02578408054086374</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1593395415343037</v>
+        <v>1.907920880938897</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02578408054086374</v>
+        <v>1.65414556182454</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.905761365753363</v>
+        <v>5.833604060449136</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.65414556182454</v>
+        <v>3.498985080366051e-15</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>5.833604060449136</v>
+        <v>120860338.4578194</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>3.498985080366051e-15</v>
+        <v>9.984003766466268e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>120860338.4578194</v>
+        <v>51.11044978667665</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>9.984003766466268e-07</v>
+        <v>0.0002665107159681975</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>51.11044978667665</v>
+        <v>10.88933591397649</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0002665107159681975</v>
+        <v>1.562506766710352</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>10.88933591397649</v>
+        <v>0.03160221084072017</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.562506766710352</v>
+        <v>2.832099556570656</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.03160221084072017</v>
+        <v>0.9622916234902746</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.832099556570656</v>
+        <v>1.413894232843415</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9622916234902746</v>
+        <v>9</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.413894232843415</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.8673917479414768</v>
       </c>
     </row>
@@ -6548,72 +6530,66 @@
         <v>5.133837724029687e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.6655105575587582</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-0.4109531588412865</v>
+        <v>5.187897238080874e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.02559159817427088</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>5.187897238080874e-06</v>
+        <v>0.1479366513459353</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.02559159817427088</v>
+        <v>0.02252942344503495</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1479366513459353</v>
+        <v>1.911294716600488</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02252942344503495</v>
+        <v>1.71104723962089</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.924543739823284</v>
+        <v>5.894207472007645</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.71104723962089</v>
+        <v>2.412181811282692e-15</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>5.894207472007645</v>
+        <v>177099434.803562</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>2.412181811282692e-15</v>
+        <v>6.821916767593648e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>177099434.803562</v>
+        <v>75.65617642348728</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>6.821916767593648e-07</v>
+        <v>0.0002112850729539377</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>75.65617642348728</v>
+        <v>12.08748517255041</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0002112850729539377</v>
+        <v>1.290000661293519</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>12.08748517255041</v>
+        <v>0.03087029107406283</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.290000661293519</v>
+        <v>3.203947915682463</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.03087029107406283</v>
+        <v>0.9626502871236533</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.203947915682463</v>
+        <v>1.325411903545294</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9626502871236533</v>
+        <v>9</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.325411903545294</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>1.365505920588862</v>
       </c>
     </row>
@@ -6628,72 +6604,66 @@
         <v>5.208651068542079e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.6782644019022264</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-0.426086899494909</v>
+        <v>5.17316282788681e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.03131630391223317</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>5.17316282788681e-06</v>
+        <v>0.1340412326293185</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.03131630391223317</v>
+        <v>0.01893474846565151</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1340412326293185</v>
+        <v>1.914461231074502</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01893474846565151</v>
+        <v>1.843026112153139</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.92614224974462</v>
+        <v>4.218128133809927</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.843026112153139</v>
+        <v>2.426970034936147e-15</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>4.218128133809927</v>
+        <v>174354575.805643</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>2.426970034936147e-15</v>
+        <v>6.93569957802186e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>174354575.805643</v>
+        <v>73.77871951579452</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>6.93569957802186e-07</v>
+        <v>0.0002090505180835794</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>73.77871951579452</v>
+        <v>13.48036723642487</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0002090505180835794</v>
+        <v>1.022975670865562</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>13.48036723642487</v>
+        <v>0.03798872303458069</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.022975670865562</v>
+        <v>2.766284774454239</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.03798872303458069</v>
+        <v>0.9625222374458908</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.766284774454239</v>
+        <v>1.26967162126124</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9625222374458908</v>
+        <v>9</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.26967162126124</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.9553448361128387</v>
       </c>
     </row>
@@ -6708,72 +6678,66 @@
         <v>5.246995906281879e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.7237659726037367</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-0.3740257506226041</v>
+        <v>5.155197424038278e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.03739299917785969</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.155197424038278e-06</v>
+        <v>0.1175154457304367</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.03739299917785969</v>
+        <v>0.0151922494957572</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1175154457304367</v>
+        <v>1.914462804798075</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.0151922494957572</v>
+        <v>1.931063734475635</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.928811984140018</v>
+        <v>3.768244396890136</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.931063734475635</v>
+        <v>2.433306249686118e-15</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.768244396890136</v>
+        <v>180268063.2407753</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>2.433306249686118e-15</v>
+        <v>6.714037484213488e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>180268063.2407753</v>
+        <v>79.07411812738225</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>6.714037484213488e-07</v>
+        <v>0.0002101037512738501</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>79.07411812738225</v>
+        <v>13.4323358245488</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0002101037512738501</v>
+        <v>0.9959880923991221</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>13.4323358245488</v>
+        <v>0.03790852519580551</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>0.9959880923991221</v>
+        <v>2.478765534244601</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.03790852519580551</v>
+        <v>0.9621220324558299</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.478765534244601</v>
+        <v>1.299609728600666</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9621220324558299</v>
+        <v>0</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.299609728600666</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.6105752749820752</v>
       </c>
     </row>
@@ -6788,72 +6752,66 @@
         <v>5.22364761659994e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7927617476052016</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-0.2316125307749983</v>
+        <v>5.133895339048091e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.04380061875794507</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.133895339048091e-06</v>
+        <v>0.09924413216395102</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.04380061875794507</v>
+        <v>0.01175510513659994</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.09924413216395102</v>
+        <v>1.828769683564264</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01175510513659994</v>
+        <v>1.753570014191947</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.806350184655835</v>
+        <v>6.57195965281466</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.753570014191947</v>
+        <v>4.185783634952986e-15</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>6.57195965281466</v>
+        <v>106954386.8914723</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>4.185783634952986e-15</v>
+        <v>1.107059134782875e-06</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>106954386.8914723</v>
+        <v>47.8821872522447</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.107059134782875e-06</v>
+        <v>0.0002031886832538999</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>47.8821872522447</v>
+        <v>10.69715990624547</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0002031886832538999</v>
+        <v>1.297466001053772</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.69715990624547</v>
+        <v>0.02325072458160544</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.297466001053772</v>
+        <v>2.748816434519764</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.02325072458160544</v>
+        <v>0.9601028123078169</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.748816434519764</v>
+        <v>1.521203216262143</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9601028123078169</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.521203216262143</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.3837274052609221</v>
       </c>
     </row>
@@ -6868,72 +6826,66 @@
         <v>5.123188697932091e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.8637513486463084</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-0.023366076886985</v>
+        <v>5.109585096241073e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.04986180262720213</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.109585096241073e-06</v>
+        <v>0.08607086772195859</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.04986180262720213</v>
+        <v>0.009889097886055014</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.08607086772195859</v>
+        <v>1.798353095655331</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.009889097886055014</v>
+        <v>1.684989255766282</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.761229586393056</v>
+        <v>4.768319326603463</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.684989255766282</v>
+        <v>9.836276786895945e-15</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>4.768319326603463</v>
+        <v>43444356.94468348</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.836276786895945e-15</v>
+        <v>2.687694198760523e-06</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>43444356.94468348</v>
+        <v>18.56510832166586</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>2.687694198760523e-06</v>
+        <v>0.0002548105913692849</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>18.56510832166586</v>
+        <v>9.428504602771287</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0002548105913692849</v>
+        <v>1.782081010202388</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.428504602771287</v>
+        <v>0.02265182045430113</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.782081010202388</v>
+        <v>2.648631934827407</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.02265182045430113</v>
+        <v>0.9591136565362288</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.648631934827407</v>
+        <v>1.719287339034556</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9591136565362288</v>
+        <v>1</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.719287339034556</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2043866880605623</v>
       </c>
     </row>
@@ -6948,72 +6900,66 @@
         <v>4.953039542536644e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.9162415879879292</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>0.1886147315047895</v>
+        <v>5.083205489598443e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.05448071350961763</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.083205489598443e-06</v>
+        <v>0.08288525853658635</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>-0.05448071350961763</v>
+        <v>0.009837350945973645</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.08288525853658635</v>
+        <v>1.788528659949607</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.009837350945973645</v>
+        <v>1.660219802848508</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.743701345920719</v>
+        <v>4.378551332063426</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.660219802848508</v>
+        <v>1.166542359050763e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>4.378551332063426</v>
+        <v>35937078.02570525</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>1.166542359050763e-14</v>
+        <v>3.238975654067807e-06</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>35937078.02570525</v>
+        <v>15.06558633195201</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>3.238975654067807e-06</v>
+        <v>0.0001946793003999781</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>15.06558633195201</v>
+        <v>10.15061471506354</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001946793003999781</v>
+        <v>1.367024695681997</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>10.15061471506354</v>
+        <v>0.02005877764668096</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.367024695681997</v>
+        <v>2.796326930890962</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.02005877764668096</v>
+        <v>0.9588887104375284</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>2.796326930890962</v>
+        <v>1.738216621862552</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9588887104375284</v>
+        <v>1</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.738216621862552</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1818579762714706</v>
       </c>
     </row>
@@ -7028,72 +6974,66 @@
         <v>4.731029034230285e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.9392836657729347</v>
+        <v>1.868847173013517e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>0.3495947194640392</v>
+        <v>5.055828366636107e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1.868847173013517e-06</v>
+        <v>-0.05857531563536148</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.055828366636107e-06</v>
+        <v>0.08470429085202928</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>-0.05857531563536148</v>
+        <v>0.01060601132061255</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.08470429085202928</v>
+        <v>1.782836188100537</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.01060601132061255</v>
+        <v>1.662316525568105</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.733192981760412</v>
+        <v>4.111621631013008</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.662316525568105</v>
+        <v>1.322924684486619e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.111621631013008</v>
+        <v>30280629.35840148</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>1.322924684486619e-14</v>
+        <v>3.812865492456572e-06</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>30280629.35840148</v>
+        <v>12.13011490434987</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>3.812865492456572e-06</v>
+        <v>0.0001598390676572514</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>12.13011490434987</v>
+        <v>10.98407995352996</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001598390676572514</v>
+        <v>1.12726241047851</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>10.98407995352996</v>
+        <v>0.01928458549893391</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.12726241047851</v>
+        <v>2.830041922647696</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01928458549893391</v>
+        <v>0.9582867038816762</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>2.830041922647696</v>
+        <v>1.701772899734735</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9582867038816762</v>
+        <v>1</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.701772899734735</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1879165590651937</v>
       </c>
     </row>
@@ -7108,72 +7048,66 @@
         <v>4.468376557303008e-07</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>0.9191043542095535</v>
+        <v>1.858532990449714e-06</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>0.3892557565499888</v>
+        <v>5.027990506923743e-06</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>1.858532990449714e-06</v>
+        <v>-0.06213274998737917</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>5.027990506923743e-06</v>
+        <v>0.0893896201763317</v>
       </c>
       <c r="H10" s="2" t="n">
-        <v>-0.06213274998737917</v>
+        <v>0.01185093192120327</v>
       </c>
       <c r="I10" s="2" t="n">
-        <v>0.0893896201763317</v>
+        <v>1.773330967814346</v>
       </c>
       <c r="J10" s="2" t="n">
-        <v>0.01185093192120327</v>
+        <v>1.680477440042062</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>1.724606801854301</v>
+        <v>4.03118931599845</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>1.680477440042062</v>
+        <v>1.376242660142455e-14</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>4.03118931599845</v>
+        <v>29206194.93335925</v>
       </c>
       <c r="N10" s="2" t="n">
-        <v>1.376242660142455e-14</v>
+        <v>3.939615132158486e-06</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>29206194.93335925</v>
+        <v>11.7393749728364</v>
       </c>
       <c r="P10" s="2" t="n">
-        <v>3.939615132158486e-06</v>
+        <v>0.0001460820877254099</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>11.7393749728364</v>
+        <v>10.9877838955638</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0.0001460820877254099</v>
+        <v>1.122936662880308</v>
       </c>
       <c r="S10" s="2" t="n">
-        <v>10.9877838955638</v>
+        <v>0.01763669422619506</v>
       </c>
       <c r="T10" s="2" t="n">
-        <v>1.122936662880308</v>
+        <v>2.803698865914424</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0.01763669422619506</v>
+        <v>0.9574146391546289</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>2.803698865914424</v>
+        <v>1.735941269013372</v>
       </c>
       <c r="W10" s="2" t="n">
-        <v>0.9574146391546289</v>
+        <v>1</v>
       </c>
       <c r="X10" s="2" t="n">
-        <v>1.735941269013372</v>
-      </c>
-      <c r="Y10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="2" t="n">
         <v>0.196831554859213</v>
       </c>
     </row>
@@ -7188,72 +7122,66 @@
         <v>4.191481264578023e-07</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>0.8588802574862648</v>
+        <v>1.78470793982314e-06</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>0.2913680803382901</v>
+        <v>5.000701144484552e-06</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1.78470793982314e-06</v>
+        <v>-0.0635908475504845</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>5.000701144484552e-06</v>
+        <v>0.09427051650383443</v>
       </c>
       <c r="H11" s="2" t="n">
-        <v>-0.0635908475504845</v>
+        <v>0.01292756269001572</v>
       </c>
       <c r="I11" s="2" t="n">
-        <v>0.09427051650383443</v>
+        <v>1.767543386411147</v>
       </c>
       <c r="J11" s="2" t="n">
-        <v>0.01292756269001572</v>
+        <v>1.677558512737644</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>1.71546861042117</v>
+        <v>4.019729260086208</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>1.677558512737644</v>
+        <v>1.38410105017888e-14</v>
       </c>
       <c r="M11" s="2" t="n">
-        <v>4.019729260086208</v>
+        <v>29412961.85576579</v>
       </c>
       <c r="N11" s="2" t="n">
-        <v>1.38410105017888e-14</v>
+        <v>3.909258696036459e-06</v>
       </c>
       <c r="O11" s="2" t="n">
-        <v>29412961.85576579</v>
+        <v>11.97416718743874</v>
       </c>
       <c r="P11" s="2" t="n">
-        <v>3.909258696036459e-06</v>
+        <v>0.0001343379772243046</v>
       </c>
       <c r="Q11" s="2" t="n">
-        <v>11.97416718743874</v>
+        <v>9.862430621289763</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0.0001343379772243046</v>
+        <v>1.200263738174564</v>
       </c>
       <c r="S11" s="2" t="n">
-        <v>9.862430621289763</v>
+        <v>0.01306672427223402</v>
       </c>
       <c r="T11" s="2" t="n">
-        <v>1.200263738174564</v>
+        <v>3.045214905527171</v>
       </c>
       <c r="U11" s="2" t="n">
-        <v>0.01306672427223402</v>
+        <v>0.9574492809815327</v>
       </c>
       <c r="V11" s="2" t="n">
-        <v>3.045214905527171</v>
+        <v>1.736030611086845</v>
       </c>
       <c r="W11" s="2" t="n">
-        <v>0.9574492809815327</v>
+        <v>15</v>
       </c>
       <c r="X11" s="2" t="n">
-        <v>1.736030611086845</v>
-      </c>
-      <c r="Y11" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z11" s="2" t="n">
         <v>0.1974364129220649</v>
       </c>
     </row>
@@ -7268,72 +7196,66 @@
         <v>3.928214568040559e-07</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>0.7788089484488773</v>
+        <v>1.672404557234333e-06</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>0.1159547082590624</v>
+        <v>4.974875772089452e-06</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>1.672404557234333e-06</v>
+        <v>-0.06355486039270938</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>4.974875772089452e-06</v>
+        <v>0.09660080455366889</v>
       </c>
       <c r="H12" s="2" t="n">
-        <v>-0.06355486039270938</v>
+        <v>0.01336523600492794</v>
       </c>
       <c r="I12" s="2" t="n">
-        <v>0.09660080455366889</v>
+        <v>1.76216752139203</v>
       </c>
       <c r="J12" s="2" t="n">
-        <v>0.01336523600492794</v>
+        <v>1.655944692289387</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>1.708648636385774</v>
+        <v>3.962094995924593</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>1.655944692289387</v>
+        <v>1.424661330144721e-14</v>
       </c>
       <c r="M12" s="2" t="n">
-        <v>3.962094995924593</v>
+        <v>28576706.66118834</v>
       </c>
       <c r="N12" s="2" t="n">
-        <v>1.424661330144721e-14</v>
+        <v>4.021923518598465e-06</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>28576706.66118834</v>
+        <v>11.63418565787455</v>
       </c>
       <c r="P12" s="2" t="n">
-        <v>4.021923518598465e-06</v>
+        <v>0.0001477109481600303</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>11.63418565787455</v>
+        <v>8.697389031559135</v>
       </c>
       <c r="R12" s="2" t="n">
-        <v>0.0001477109481600303</v>
+        <v>1.566087883903644</v>
       </c>
       <c r="S12" s="2" t="n">
-        <v>8.697389031559135</v>
+        <v>0.01117353203914342</v>
       </c>
       <c r="T12" s="2" t="n">
-        <v>1.566087883903644</v>
+        <v>3.182077185381961</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0.01117353203914342</v>
+        <v>0.9579403540490781</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>3.182077185381961</v>
+        <v>1.692435234075854</v>
       </c>
       <c r="W12" s="2" t="n">
-        <v>0.9579403540490781</v>
+        <v>15</v>
       </c>
       <c r="X12" s="2" t="n">
-        <v>1.692435234075854</v>
-      </c>
-      <c r="Y12" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="Z12" s="2" t="n">
         <v>0.1870299975961821</v>
       </c>
     </row>
@@ -7348,72 +7270,66 @@
         <v>3.69281805852106e-07</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>0.6963547201428441</v>
+        <v>1.550527747013142e-06</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>-0.07770547791159421</v>
+        <v>4.950800553060581e-06</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1.550527747013142e-06</v>
+        <v>-0.06283515273275121</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>4.950800553060581e-06</v>
+        <v>0.09694485059511329</v>
       </c>
       <c r="H13" s="2" t="n">
-        <v>-0.06283515273275121</v>
+        <v>0.01333994890050935</v>
       </c>
       <c r="I13" s="2" t="n">
-        <v>0.09694485059511329</v>
+        <v>1.761392811211824</v>
       </c>
       <c r="J13" s="2" t="n">
-        <v>0.01333994890050935</v>
+        <v>1.670959248629237</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>1.707594784323724</v>
+        <v>3.959405947013018</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>1.670959248629237</v>
+        <v>1.426597117970345e-14</v>
       </c>
       <c r="M13" s="2" t="n">
-        <v>3.959405947013018</v>
+        <v>29372311.8766945</v>
       </c>
       <c r="N13" s="2" t="n">
-        <v>1.426597117970345e-14</v>
+        <v>3.912832931588064e-06</v>
       </c>
       <c r="O13" s="2" t="n">
-        <v>29372311.8766945</v>
+        <v>12.30771990505809</v>
       </c>
       <c r="P13" s="2" t="n">
-        <v>3.912832931588064e-06</v>
+        <v>0.0001658601029797254</v>
       </c>
       <c r="Q13" s="2" t="n">
-        <v>12.30771990505809</v>
+        <v>9.350132957035511</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0.0001658601029797254</v>
+        <v>1.498077194341326</v>
       </c>
       <c r="S13" s="2" t="n">
-        <v>9.350132957035511</v>
+        <v>0.0145003172330812</v>
       </c>
       <c r="T13" s="2" t="n">
-        <v>1.498077194341326</v>
+        <v>3.068769874190182</v>
       </c>
       <c r="U13" s="2" t="n">
-        <v>0.0145003172330812</v>
+        <v>0.9586031613065655</v>
       </c>
       <c r="V13" s="2" t="n">
-        <v>3.068769874190182</v>
+        <v>1.726962297720561</v>
       </c>
       <c r="W13" s="2" t="n">
-        <v>0.9586031613065655</v>
+        <v>16</v>
       </c>
       <c r="X13" s="2" t="n">
-        <v>1.726962297720561</v>
-      </c>
-      <c r="Y13" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="Z13" s="2" t="n">
         <v>0.1824723569503338</v>
       </c>
     </row>
@@ -7428,72 +7344,66 @@
         <v>3.489133418477841e-07</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>0.6225959763043731</v>
+        <v>1.433369078780585e-06</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>-0.2525608889923241</v>
+        <v>4.928450058674318e-06</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1.433369078780585e-06</v>
+        <v>-0.06171371325236365</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>4.928450058674318e-06</v>
+        <v>0.09643570868272758</v>
       </c>
       <c r="H14" s="2" t="n">
-        <v>-0.06171371325236365</v>
+        <v>0.0131020169876922</v>
       </c>
       <c r="I14" s="2" t="n">
-        <v>0.09643570868272758</v>
+        <v>1.755852233619559</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>0.0131020169876922</v>
+        <v>1.657520837932642</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>1.699749064158689</v>
+        <v>3.97603049425209</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>1.657520837932642</v>
+        <v>1.414692305103948e-14</v>
       </c>
       <c r="M14" s="2" t="n">
-        <v>3.97603049425209</v>
+        <v>29531724.28365711</v>
       </c>
       <c r="N14" s="2" t="n">
-        <v>1.414692305103948e-14</v>
+        <v>3.881936597601015e-06</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>29531724.28365711</v>
+        <v>12.33785328204237</v>
       </c>
       <c r="P14" s="2" t="n">
-        <v>3.881936597601015e-06</v>
+        <v>0.0001530225926162086</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>12.33785328204237</v>
+        <v>10.6364362003079</v>
       </c>
       <c r="R14" s="2" t="n">
-        <v>0.0001530225926162086</v>
+        <v>1.172285092156656</v>
       </c>
       <c r="S14" s="2" t="n">
-        <v>10.6364362003079</v>
+        <v>0.01731202356957248</v>
       </c>
       <c r="T14" s="2" t="n">
-        <v>1.172285092156656</v>
+        <v>2.939133419620906</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0.01731202356957248</v>
+        <v>0.9593234066914988</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>2.939133419620906</v>
+        <v>1.763864427591285</v>
       </c>
       <c r="W14" s="2" t="n">
-        <v>0.9593234066914988</v>
+        <v>17</v>
       </c>
       <c r="X14" s="2" t="n">
-        <v>1.763864427591285</v>
-      </c>
-      <c r="Y14" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z14" s="2" t="n">
         <v>0.1906362628044315</v>
       </c>
     </row>
@@ -7508,72 +7418,66 @@
         <v>3.315857110552165e-07</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>0.5632232427344781</v>
+        <v>1.327322392327862e-06</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>-0.3906961948620937</v>
+        <v>4.907662122501873e-06</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>1.327322392327862e-06</v>
+        <v>-0.06066737818264532</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>4.907662122501873e-06</v>
+        <v>0.0958837677751655</v>
       </c>
       <c r="H15" s="2" t="n">
-        <v>-0.06066737818264532</v>
+        <v>0.01286851669640721</v>
       </c>
       <c r="I15" s="2" t="n">
-        <v>0.0958837677751655</v>
+        <v>1.744398564922772</v>
       </c>
       <c r="J15" s="2" t="n">
-        <v>0.01286851669640721</v>
+        <v>1.628051302232054</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>1.690341126712598</v>
+        <v>3.954328909455453</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>1.628051302232054</v>
+        <v>1.430262739598282e-14</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>3.954328909455453</v>
+        <v>29375038.87643573</v>
       </c>
       <c r="N15" s="2" t="n">
-        <v>1.430262739598282e-14</v>
+        <v>3.90174357598804e-06</v>
       </c>
       <c r="O15" s="2" t="n">
-        <v>29375038.87643573</v>
+        <v>12.34163575994987</v>
       </c>
       <c r="P15" s="2" t="n">
-        <v>3.90174357598804e-06</v>
+        <v>0.0001405131040857298</v>
       </c>
       <c r="Q15" s="2" t="n">
-        <v>12.34163575994987</v>
+        <v>10.8608518563144</v>
       </c>
       <c r="R15" s="2" t="n">
-        <v>0.0001405131040857298</v>
+        <v>1.130086445605879</v>
       </c>
       <c r="S15" s="2" t="n">
-        <v>10.8608518563144</v>
+        <v>0.01657465921089033</v>
       </c>
       <c r="T15" s="2" t="n">
-        <v>1.130086445605879</v>
+        <v>2.873018496793322</v>
       </c>
       <c r="U15" s="2" t="n">
-        <v>0.01657465921089033</v>
+        <v>0.9597502479127716</v>
       </c>
       <c r="V15" s="2" t="n">
-        <v>2.873018496793322</v>
+        <v>1.733832581542087</v>
       </c>
       <c r="W15" s="2" t="n">
-        <v>0.9597502479127716</v>
+        <v>17</v>
       </c>
       <c r="X15" s="2" t="n">
-        <v>1.733832581542087</v>
-      </c>
-      <c r="Y15" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z15" s="2" t="n">
         <v>0.200881785402964</v>
       </c>
     </row>
@@ -7588,72 +7492,66 @@
         <v>3.170033312902111e-07</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>0.5181199583544495</v>
+        <v>1.237714933391083e-06</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>-0.4920142420071678</v>
+        <v>4.888081177041417e-06</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>1.237714933391083e-06</v>
+        <v>-0.06035265854158737</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>4.888081177041417e-06</v>
+        <v>0.0962323564612762</v>
       </c>
       <c r="H16" s="2" t="n">
-        <v>-0.06035265854158737</v>
+        <v>0.01289872575843978</v>
       </c>
       <c r="I16" s="2" t="n">
-        <v>0.0962323564612762</v>
+        <v>1.752933917769105</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>0.01289872575843978</v>
+        <v>1.618679656122284</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>1.697018966749442</v>
+        <v>4.008050010544562</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>1.618679656122284</v>
+        <v>1.392179199842459e-14</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>4.008050010544562</v>
+        <v>31425476.25080173</v>
       </c>
       <c r="N16" s="2" t="n">
-        <v>1.392179199842459e-14</v>
+        <v>3.669417304115054e-06</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>31425476.25080173</v>
+        <v>13.74861266861207</v>
       </c>
       <c r="P16" s="2" t="n">
-        <v>3.669417304115054e-06</v>
+        <v>0.0001275330615228844</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>13.74861266861207</v>
+        <v>9.611833209479101</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0.0001275330615228844</v>
+        <v>1.227107090594457</v>
       </c>
       <c r="S16" s="2" t="n">
-        <v>9.611833209479101</v>
+        <v>0.01178244001605062</v>
       </c>
       <c r="T16" s="2" t="n">
-        <v>1.227107090594457</v>
+        <v>3.124455968584143</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0.01178244001605062</v>
+        <v>0.9589957553740935</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>3.124455968584143</v>
+        <v>1.703643397257991</v>
       </c>
       <c r="W16" s="2" t="n">
-        <v>0.9589957553740935</v>
+        <v>17</v>
       </c>
       <c r="X16" s="2" t="n">
-        <v>1.703643397257991</v>
-      </c>
-      <c r="Y16" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="Z16" s="2" t="n">
         <v>0.2025657591626556</v>
       </c>
     </row>
@@ -7668,72 +7566,66 @@
         <v>3.046474490862191e-07</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>0.4808704696071727</v>
+        <v>1.169221052676182e-06</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>-0.5729093637153833</v>
+        <v>4.869265118773533e-06</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1.169221052676182e-06</v>
+        <v>-0.0609684116657243</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4.869265118773533e-06</v>
+        <v>0.09809392860993911</v>
       </c>
       <c r="H17" s="2" t="n">
-        <v>-0.0609684116657243</v>
+        <v>0.01333695383944171</v>
       </c>
       <c r="I17" s="2" t="n">
-        <v>0.09809392860993911</v>
+        <v>1.746182751114028</v>
       </c>
       <c r="J17" s="2" t="n">
-        <v>0.01333695383944171</v>
+        <v>1.586739785256011</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>1.689222877543218</v>
+        <v>4.219624683873709</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>1.586739785256011</v>
+        <v>1.256069748403313e-14</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>4.219624683873709</v>
+        <v>34719810.2659388</v>
       </c>
       <c r="N17" s="2" t="n">
-        <v>1.256069748403313e-14</v>
+        <v>3.311786060758743e-06</v>
       </c>
       <c r="O17" s="2" t="n">
-        <v>34719810.2659388</v>
+        <v>15.1414840175259</v>
       </c>
       <c r="P17" s="2" t="n">
-        <v>3.311786060758743e-06</v>
+        <v>0.0001211348775219598</v>
       </c>
       <c r="Q17" s="2" t="n">
-        <v>15.1414840175259</v>
+        <v>8.490322049113967</v>
       </c>
       <c r="R17" s="2" t="n">
-        <v>0.0001211348775219598</v>
+        <v>1.478559045422712</v>
       </c>
       <c r="S17" s="2" t="n">
-        <v>8.490322049113967</v>
+        <v>0.008732076511066198</v>
       </c>
       <c r="T17" s="2" t="n">
-        <v>1.478559045422712</v>
+        <v>3.312056037428146</v>
       </c>
       <c r="U17" s="2" t="n">
-        <v>0.008732076511066198</v>
+        <v>0.9580510675925573</v>
       </c>
       <c r="V17" s="2" t="n">
-        <v>3.312056037428146</v>
+        <v>1.72609766359602</v>
       </c>
       <c r="W17" s="2" t="n">
-        <v>0.9580510675925573</v>
+        <v>20</v>
       </c>
       <c r="X17" s="2" t="n">
-        <v>1.72609766359602</v>
-      </c>
-      <c r="Y17" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z17" s="2" t="n">
         <v>0.2143062417410816</v>
       </c>
     </row>
@@ -7748,72 +7640,66 @@
         <v>2.937381731529088e-07</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>0.440323846294882</v>
+        <v>1.124070149887922e-06</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>-0.6620127711763906</v>
+        <v>4.850817935017347e-06</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>1.124070149887922e-06</v>
+        <v>-0.06256149726543152</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4.850817935017347e-06</v>
+        <v>0.1012310451294603</v>
       </c>
       <c r="H18" s="2" t="n">
-        <v>-0.06256149726543152</v>
+        <v>0.01416050979230225</v>
       </c>
       <c r="I18" s="2" t="n">
-        <v>0.1012310451294603</v>
+        <v>1.744950312525753</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>0.01416050979230225</v>
+        <v>1.549255406740869</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>1.688518916937853</v>
+        <v>4.682658507326067</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>1.549255406740869</v>
+        <v>1.012738287692863e-14</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>4.682658507326067</v>
+        <v>42702224.11601126</v>
       </c>
       <c r="N18" s="2" t="n">
-        <v>1.012738287692863e-14</v>
+        <v>2.687076322004521e-06</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>42702224.11601126</v>
+        <v>18.46707956588676</v>
       </c>
       <c r="P18" s="2" t="n">
-        <v>2.687076322004521e-06</v>
+        <v>0.0001194930375271368</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>18.46707956588676</v>
+        <v>7.785699817767386</v>
       </c>
       <c r="R18" s="2" t="n">
-        <v>0.0001194930375271368</v>
+        <v>1.857022379143852</v>
       </c>
       <c r="S18" s="2" t="n">
-        <v>7.785699817767386</v>
+        <v>0.007243323992395231</v>
       </c>
       <c r="T18" s="2" t="n">
-        <v>1.857022379143852</v>
+        <v>3.448567550077644</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0.007243323992395231</v>
+        <v>0.957515059338393</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>3.448567550077644</v>
+        <v>1.724478750717759</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0.957515059338393</v>
+        <v>20</v>
       </c>
       <c r="X18" s="2" t="n">
-        <v>1.724478750717759</v>
-      </c>
-      <c r="Y18" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z18" s="2" t="n">
         <v>0.2475489774687362</v>
       </c>
     </row>
@@ -7828,72 +7714,66 @@
         <v>2.834674597184575e-07</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>0.3833711410787372</v>
+        <v>1.100931370018192e-06</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>-0.7969461337541039</v>
+        <v>4.832449775283908e-06</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>1.100931370018192e-06</v>
+        <v>-0.06473636975468298</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>4.832449775283908e-06</v>
+        <v>0.1048581695901446</v>
       </c>
       <c r="H19" s="2" t="n">
-        <v>-0.06473636975468298</v>
+        <v>0.01518487014652712</v>
       </c>
       <c r="I19" s="2" t="n">
-        <v>0.1048581695901446</v>
+        <v>1.744644242724657</v>
       </c>
       <c r="J19" s="2" t="n">
-        <v>0.01518487014652712</v>
+        <v>1.597268488297779</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>1.692015196306847</v>
+        <v>4.870193521543595</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>1.597268488297779</v>
+        <v>7.709471536426582e-15</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>4.870193521543595</v>
+        <v>55363628.1485524</v>
       </c>
       <c r="N19" s="2" t="n">
-        <v>7.709471536426582e-15</v>
+        <v>2.071742026719478e-06</v>
       </c>
       <c r="O19" s="2" t="n">
-        <v>55363628.1485524</v>
+        <v>23.63054268060453</v>
       </c>
       <c r="P19" s="2" t="n">
-        <v>2.071742026719478e-06</v>
+        <v>0.0001049788660870458</v>
       </c>
       <c r="Q19" s="2" t="n">
-        <v>23.63054268060453</v>
+        <v>7.438332139157432</v>
       </c>
       <c r="R19" s="2" t="n">
-        <v>0.0001049788660870458</v>
+        <v>1.727141345984525</v>
       </c>
       <c r="S19" s="2" t="n">
-        <v>7.438332139157432</v>
+        <v>0.005808353112578034</v>
       </c>
       <c r="T19" s="2" t="n">
-        <v>1.727141345984525</v>
+        <v>3.507631551836431</v>
       </c>
       <c r="U19" s="2" t="n">
-        <v>0.005808353112578034</v>
+        <v>0.9575521527099878</v>
       </c>
       <c r="V19" s="2" t="n">
-        <v>3.507631551836431</v>
+        <v>1.712640850572186</v>
       </c>
       <c r="W19" s="2" t="n">
-        <v>0.9575521527099878</v>
+        <v>20</v>
       </c>
       <c r="X19" s="2" t="n">
-        <v>1.712640850572186</v>
-      </c>
-      <c r="Y19" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z19" s="2" t="n">
         <v>0.3157791619196235</v>
       </c>
     </row>
@@ -7908,72 +7788,66 @@
         <v>2.73916886115328e-07</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>0.3107595470988114</v>
+        <v>1.073883243533333e-06</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>-0.9797821878329271</v>
+        <v>4.814277020624112e-06</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>1.073883243533333e-06</v>
+        <v>-0.06535352999619527</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>4.814277020624112e-06</v>
+        <v>0.1073091339618745</v>
       </c>
       <c r="H20" s="2" t="n">
-        <v>-0.06535352999619527</v>
+        <v>0.01578273696190772</v>
       </c>
       <c r="I20" s="2" t="n">
-        <v>0.1073091339618745</v>
+        <v>1.745622030936238</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>0.01578273696190772</v>
+        <v>1.595405191547286</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>1.693629998056134</v>
+        <v>5.041861939765678</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>1.595405191547286</v>
+        <v>6.297642009005307e-15</v>
       </c>
       <c r="M20" s="2" t="n">
-        <v>5.041861939765678</v>
+        <v>65816677.52055208</v>
       </c>
       <c r="N20" s="2" t="n">
-        <v>6.297642009005307e-15</v>
+        <v>1.735662143121346e-06</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>65816677.52055208</v>
+        <v>27.28034632300493</v>
       </c>
       <c r="P20" s="2" t="n">
-        <v>1.735662143121346e-06</v>
+        <v>0.000107298405664628</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>27.28034632300493</v>
+        <v>8.470423068836215</v>
       </c>
       <c r="R20" s="2" t="n">
-        <v>0.000107298405664628</v>
+        <v>1.256028965319345</v>
       </c>
       <c r="S20" s="2" t="n">
-        <v>8.470423068836215</v>
+        <v>0.007698453194871266</v>
       </c>
       <c r="T20" s="2" t="n">
-        <v>1.256028965319345</v>
+        <v>3.313486109218449</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0.007698453194871266</v>
+        <v>0.9575890595013554</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>3.313486109218449</v>
+        <v>1.763480140365738</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0.9575890595013554</v>
+        <v>20</v>
       </c>
       <c r="X20" s="2" t="n">
-        <v>1.763480140365738</v>
-      </c>
-      <c r="Y20" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z20" s="2" t="n">
         <v>0.3332079626940638</v>
       </c>
     </row>
@@ -7988,72 +7862,66 @@
         <v>2.660250673840196e-07</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>0.2446405950447799</v>
+        <v>1.02205932905286e-06</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>-1.148588392319333</v>
+        <v>4.796791001595007e-06</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1.02205932905286e-06</v>
+        <v>-0.06404568156807727</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>4.796791001595007e-06</v>
+        <v>0.107466669166759</v>
       </c>
       <c r="H21" s="2" t="n">
-        <v>-0.06404568156807727</v>
+        <v>0.01564645952528458</v>
       </c>
       <c r="I21" s="2" t="n">
-        <v>0.107466669166759</v>
+        <v>1.82285601513469</v>
       </c>
       <c r="J21" s="2" t="n">
-        <v>0.01564645952528458</v>
+        <v>1.646903649640755</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>1.794111685867547</v>
+        <v>4.806891927214855</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>1.646903649640755</v>
+        <v>6.518680730159468e-15</v>
       </c>
       <c r="M21" s="2" t="n">
-        <v>4.806891927214855</v>
+        <v>62444110.61539588</v>
       </c>
       <c r="N21" s="2" t="n">
-        <v>6.518680730159468e-15</v>
+        <v>1.88044887163642e-06</v>
       </c>
       <c r="O21" s="2" t="n">
-        <v>62444110.61539588</v>
+        <v>25.41807633228359</v>
       </c>
       <c r="P21" s="2" t="n">
-        <v>1.88044887163642e-06</v>
+        <v>0.0001225702209934947</v>
       </c>
       <c r="Q21" s="2" t="n">
-        <v>25.41807633228359</v>
+        <v>8.615737809390556</v>
       </c>
       <c r="R21" s="2" t="n">
-        <v>0.0001225702209934947</v>
+        <v>1.473149615392505</v>
       </c>
       <c r="S21" s="2" t="n">
-        <v>8.615737809390556</v>
+        <v>0.009098502475234258</v>
       </c>
       <c r="T21" s="2" t="n">
-        <v>1.473149615392505</v>
+        <v>3.299097441817183</v>
       </c>
       <c r="U21" s="2" t="n">
-        <v>0.009098502475234258</v>
+        <v>0.9597874103918796</v>
       </c>
       <c r="V21" s="2" t="n">
-        <v>3.299097441817183</v>
+        <v>1.588317949344598</v>
       </c>
       <c r="W21" s="2" t="n">
-        <v>0.9597874103918796</v>
+        <v>19</v>
       </c>
       <c r="X21" s="2" t="n">
-        <v>1.588317949344598</v>
-      </c>
-      <c r="Y21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z21" s="2" t="n">
         <v>0.3061022569647769</v>
       </c>
     </row>
@@ -8068,72 +7936,66 @@
         <v>2.599776721927867e-07</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>0.1992342944283511</v>
+        <v>9.598973519364273e-07</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>-1.269222883826198</v>
+        <v>4.780263536757046e-06</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9.598973519364273e-07</v>
+        <v>-0.06154631296658915</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>4.780263536757046e-06</v>
+        <v>0.1067502280473956</v>
       </c>
       <c r="H22" s="2" t="n">
-        <v>-0.06154631296658915</v>
+        <v>0.01517970041188463</v>
       </c>
       <c r="I22" s="2" t="n">
-        <v>0.1067502280473956</v>
+        <v>1.844479581842557</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>0.01517970041188463</v>
+        <v>1.667407017760603</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>1.830061166318357</v>
+        <v>4.318688835001359</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>1.667407017760603</v>
+        <v>5.456117591327469e-15</v>
       </c>
       <c r="M22" s="2" t="n">
-        <v>4.318688835001359</v>
+        <v>74088591.42348059</v>
       </c>
       <c r="N22" s="2" t="n">
-        <v>5.456117591327469e-15</v>
+        <v>1.590588634705028e-06</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>74088591.42348059</v>
+        <v>29.94928080528828</v>
       </c>
       <c r="P22" s="2" t="n">
-        <v>1.590588634705028e-06</v>
+        <v>0.0001208315529679156</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>29.94928080528828</v>
+        <v>10.28048031393893</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0.0001208315529679156</v>
+        <v>1.295452956987155</v>
       </c>
       <c r="S22" s="2" t="n">
-        <v>10.28048031393893</v>
+        <v>0.01277047845738798</v>
       </c>
       <c r="T22" s="2" t="n">
-        <v>1.295452956987155</v>
+        <v>3.22463174009741</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0.01277047845738798</v>
+        <v>0.9609732684177047</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>3.22463174009741</v>
+        <v>1.528938478108882</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0.9609732684177047</v>
+        <v>19</v>
       </c>
       <c r="X22" s="2" t="n">
-        <v>1.528938478108882</v>
-      </c>
-      <c r="Y22" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z22" s="2" t="n">
         <v>0.343562326446576</v>
       </c>
     </row>
@@ -8148,72 +8010,66 @@
         <v>2.552923039734113e-07</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>0.1787589644956195</v>
+        <v>8.976177331317445e-07</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>-1.343806756126222</v>
+        <v>4.764831232614375e-06</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>8.976177331317445e-07</v>
+        <v>-0.0581875586000359</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>4.764831232614375e-06</v>
+        <v>0.1066688870974029</v>
       </c>
       <c r="H23" s="2" t="n">
-        <v>-0.0581875586000359</v>
+        <v>0.01476109657785794</v>
       </c>
       <c r="I23" s="2" t="n">
-        <v>0.1066688870974029</v>
+        <v>1.845664329198993</v>
       </c>
       <c r="J23" s="2" t="n">
-        <v>0.01476109657785794</v>
+        <v>1.695013473850042</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>1.83194183046622</v>
+        <v>3.914569888842068</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>1.695013473850042</v>
+        <v>6.167729006703532e-15</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>3.914569888842068</v>
+        <v>66282884.44300209</v>
       </c>
       <c r="N23" s="2" t="n">
-        <v>6.167729006703532e-15</v>
+        <v>1.779511664474563e-06</v>
       </c>
       <c r="O23" s="2" t="n">
-        <v>66282884.44300209</v>
+        <v>27.09742872230313</v>
       </c>
       <c r="P23" s="2" t="n">
-        <v>1.779511664474563e-06</v>
+        <v>0.0001092241527197732</v>
       </c>
       <c r="Q23" s="2" t="n">
-        <v>27.09742872230313</v>
+        <v>11.55056638058083</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0.0001092241527197732</v>
+        <v>1.212764474853635</v>
       </c>
       <c r="S23" s="2" t="n">
-        <v>11.55056638058083</v>
+        <v>0.01457220409057946</v>
       </c>
       <c r="T23" s="2" t="n">
-        <v>1.212764474853635</v>
+        <v>3.20390582162676</v>
       </c>
       <c r="U23" s="2" t="n">
-        <v>0.01457220409057946</v>
+        <v>0.9622983925057506</v>
       </c>
       <c r="V23" s="2" t="n">
-        <v>3.20390582162676</v>
+        <v>1.514866806206798</v>
       </c>
       <c r="W23" s="2" t="n">
-        <v>0.9622983925057506</v>
+        <v>19</v>
       </c>
       <c r="X23" s="2" t="n">
-        <v>1.514866806206798</v>
-      </c>
-      <c r="Y23" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z23" s="2" t="n">
         <v>0.4178681760893089</v>
       </c>
     </row>
@@ -8228,72 +8084,66 @@
         <v>2.513225455619025e-07</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>0.1810678673577655</v>
+        <v>8.479259957422121e-07</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>-1.386396446465059</v>
+        <v>4.750520701026171e-06</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>8.479259957422121e-07</v>
+        <v>-0.05503096491313001</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>4.750520701026171e-06</v>
+        <v>0.1076357638823545</v>
       </c>
       <c r="H24" s="2" t="n">
-        <v>-0.05503096491313001</v>
+        <v>0.01461242749628091</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0.1076357638823545</v>
+        <v>1.789447775490042</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>0.01461242749628091</v>
+        <v>1.746219607026132</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>1.75586140530163</v>
+        <v>4.134548790479876</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>1.746219607026132</v>
+        <v>5.86355912322056e-15</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>4.134548790479876</v>
+        <v>71061135.57487808</v>
       </c>
       <c r="N24" s="2" t="n">
-        <v>5.86355912322056e-15</v>
+        <v>1.632954061344104e-06</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>71061135.57487808</v>
+        <v>29.60912648776199</v>
       </c>
       <c r="P24" s="2" t="n">
-        <v>1.632954061344104e-06</v>
+        <v>0.0001249721360382714</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>29.60912648776199</v>
+        <v>9.905423234821527</v>
       </c>
       <c r="R24" s="2" t="n">
-        <v>0.0001249721360382714</v>
+        <v>1.677883617664757</v>
       </c>
       <c r="S24" s="2" t="n">
-        <v>9.905423234821527</v>
+        <v>0.01226194224287564</v>
       </c>
       <c r="T24" s="2" t="n">
-        <v>1.677883617664757</v>
+        <v>3.330010973651532</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0.01226194224287564</v>
+        <v>0.961780377734466</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>3.330010973651532</v>
+        <v>1.653795506009712</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0.961780377734466</v>
+        <v>20</v>
       </c>
       <c r="X24" s="2" t="n">
-        <v>1.653795506009712</v>
-      </c>
-      <c r="Y24" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="Z24" s="2" t="n">
         <v>0.3596410353658495</v>
       </c>
     </row>
@@ -8308,72 +8158,66 @@
         <v>2.477152199671844e-07</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>0.1970965905616487</v>
+        <v>8.153002644619901e-07</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>-1.409898853257543</v>
+        <v>4.737008598048678e-06</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>8.153002644619901e-07</v>
+        <v>-0.053546987926192</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>4.737008598048678e-06</v>
+        <v>0.1089927798255369</v>
       </c>
       <c r="H25" s="2" t="n">
-        <v>-0.053546987926192</v>
+        <v>0.01474644441007589</v>
       </c>
       <c r="I25" s="2" t="n">
-        <v>0.1089927798255369</v>
+        <v>1.772474004911637</v>
       </c>
       <c r="J25" s="2" t="n">
-        <v>0.01474644441007589</v>
+        <v>1.879519475634859</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>1.729304317383432</v>
+        <v>4.053298465762699</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>1.879519475634859</v>
+        <v>6.100990973859298e-15</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>4.053298465762699</v>
+        <v>68129892.66510211</v>
       </c>
       <c r="N25" s="2" t="n">
-        <v>6.100990973859298e-15</v>
+        <v>1.700348187875006e-06</v>
       </c>
       <c r="O25" s="2" t="n">
-        <v>68129892.66510211</v>
+        <v>28.3188616606031</v>
       </c>
       <c r="P25" s="2" t="n">
-        <v>1.700348187875006e-06</v>
+        <v>0.0001411172258777686</v>
       </c>
       <c r="Q25" s="2" t="n">
-        <v>28.3188616606031</v>
+        <v>7.674838556585663</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0.0001411172258777686</v>
+        <v>1.929847091018271</v>
       </c>
       <c r="S25" s="2" t="n">
-        <v>7.674838556585663</v>
+        <v>0.008312248681716327</v>
       </c>
       <c r="T25" s="2" t="n">
-        <v>1.929847091018271</v>
+        <v>3.228254113845078</v>
       </c>
       <c r="U25" s="2" t="n">
-        <v>0.008312248681716327</v>
+        <v>0.9622437756117108</v>
       </c>
       <c r="V25" s="2" t="n">
-        <v>3.228254113845078</v>
+        <v>1.65401602510576</v>
       </c>
       <c r="W25" s="2" t="n">
-        <v>0.9622437756117108</v>
+        <v>21</v>
       </c>
       <c r="X25" s="2" t="n">
-        <v>1.65401602510576</v>
-      </c>
-      <c r="Y25" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z25" s="2" t="n">
         <v>0.2705248562114709</v>
       </c>
     </row>
@@ -8388,72 +8232,66 @@
         <v>2.441678128634897e-07</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>0.2188093600336151</v>
+        <v>7.912452963087589e-07</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>-1.425288387206917</v>
+        <v>4.723948005019705e-06</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>7.912452963087589e-07</v>
+        <v>-0.05253652420939274</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>4.723948005019705e-06</v>
+        <v>0.1107199580200246</v>
       </c>
       <c r="H26" s="2" t="n">
-        <v>-0.05253652420939274</v>
+        <v>0.01501854467686981</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0.1107199580200246</v>
+        <v>1.757826609431066</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>0.01501854467686981</v>
+        <v>1.83664730106374</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>1.71314785491955</v>
+        <v>3.9703954099323</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>1.83664730106374</v>
+        <v>6.358431996667607e-15</v>
       </c>
       <c r="M26" s="2" t="n">
-        <v>3.9703954099323</v>
+        <v>65190340.58082066</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>6.358431996667607e-15</v>
+        <v>1.765639778254509e-06</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>65190340.58082066</v>
+        <v>27.02194034208213</v>
       </c>
       <c r="P26" s="2" t="n">
-        <v>1.765639778254509e-06</v>
+        <v>0.0001237729893703406</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>27.02194034208213</v>
+        <v>7.912696589281012</v>
       </c>
       <c r="R26" s="2" t="n">
-        <v>0.0001237729893703406</v>
+        <v>1.263958727033484</v>
       </c>
       <c r="S26" s="2" t="n">
-        <v>7.912696589281012</v>
+        <v>0.007749521837226989</v>
       </c>
       <c r="T26" s="2" t="n">
-        <v>1.263958727033484</v>
+        <v>3.142218663016724</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0.007749521837226989</v>
+        <v>0.9614377651323809</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>3.142218663016724</v>
+        <v>1.719380082816636</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0.9614377651323809</v>
+        <v>7</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1.719380082816636</v>
-      </c>
-      <c r="Y26" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z26" s="2" t="n">
         <v>0.2627041136345222</v>
       </c>
     </row>
@@ -8468,72 +8306,66 @@
         <v>2.406167139120765e-07</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>0.2467594631370292</v>
+        <v>7.635798923609767e-07</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>-1.431495798010336</v>
+        <v>4.711388039623554e-06</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>7.635798923609767e-07</v>
+        <v>-0.05122866268057814</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>4.711388039623554e-06</v>
+        <v>0.1123666444395809</v>
       </c>
       <c r="H27" s="2" t="n">
-        <v>-0.05122866268057814</v>
+        <v>0.01525017589236044</v>
       </c>
       <c r="I27" s="2" t="n">
-        <v>0.1123666444395809</v>
+        <v>1.730707207139527</v>
       </c>
       <c r="J27" s="2" t="n">
-        <v>0.01525017589236044</v>
+        <v>1.825699599330557</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>1.669686503484008</v>
+        <v>4.339953508676498</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>1.825699599330557</v>
+        <v>7.390572264980156e-15</v>
       </c>
       <c r="M27" s="2" t="n">
-        <v>4.339953508676498</v>
+        <v>59847342.757147</v>
       </c>
       <c r="N27" s="2" t="n">
-        <v>7.390572264980156e-15</v>
+        <v>1.913269310636109e-06</v>
       </c>
       <c r="O27" s="2" t="n">
-        <v>59847342.757147</v>
+        <v>26.47084545934318</v>
       </c>
       <c r="P27" s="2" t="n">
-        <v>1.913269310636109e-06</v>
+        <v>0.000113030773918634</v>
       </c>
       <c r="Q27" s="2" t="n">
-        <v>26.47084545934318</v>
+        <v>7.721883885549282</v>
       </c>
       <c r="R27" s="2" t="n">
-        <v>0.000113030773918634</v>
+        <v>1.221774364897384</v>
       </c>
       <c r="S27" s="2" t="n">
-        <v>7.721883885549282</v>
+        <v>0.006739741425383782</v>
       </c>
       <c r="T27" s="2" t="n">
-        <v>1.221774364897384</v>
+        <v>3.188674450594035</v>
       </c>
       <c r="U27" s="2" t="n">
-        <v>0.006739741425383782</v>
+        <v>0.9606240639053979</v>
       </c>
       <c r="V27" s="2" t="n">
-        <v>3.188674450594035</v>
+        <v>1.731226892673274</v>
       </c>
       <c r="W27" s="2" t="n">
-        <v>0.9606240639053979</v>
+        <v>8</v>
       </c>
       <c r="X27" s="2" t="n">
-        <v>1.731226892673274</v>
-      </c>
-      <c r="Y27" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="2" t="n">
         <v>0.2473210036525267</v>
       </c>
     </row>
@@ -8548,72 +8380,66 @@
         <v>2.372620369515957e-07</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>0.2790347642845907</v>
+        <v>7.430531000514457e-07</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>-1.426241942964958</v>
+        <v>4.699156455063487e-06</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>7.430531000514457e-07</v>
+        <v>-0.05149477346426509</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>4.699156455063487e-06</v>
+        <v>0.1138773799756677</v>
       </c>
       <c r="H28" s="2" t="n">
-        <v>-0.05149477346426509</v>
+        <v>0.01561941037392826</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0.1138773799756677</v>
+        <v>1.728978838001658</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>0.01561941037392826</v>
+        <v>1.851184316402576</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>1.661757001941337</v>
+        <v>3.918643109757181</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>1.851184316402576</v>
+        <v>9.065187649462134e-15</v>
       </c>
       <c r="M28" s="2" t="n">
-        <v>3.918643109757181</v>
+        <v>48291869.96294574</v>
       </c>
       <c r="N28" s="2" t="n">
-        <v>9.065187649462134e-15</v>
+        <v>2.370446837076149e-06</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>48291869.96294574</v>
+        <v>21.14096676464967</v>
       </c>
       <c r="P28" s="2" t="n">
-        <v>2.370446837076149e-06</v>
+        <v>9.799459242406149e-05</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>21.14096676464967</v>
+        <v>7.386467826997344</v>
       </c>
       <c r="R28" s="2" t="n">
-        <v>9.799459242406149e-05</v>
+        <v>1.28789228969459</v>
       </c>
       <c r="S28" s="2" t="n">
-        <v>7.386467826997344</v>
+        <v>0.005346575845168072</v>
       </c>
       <c r="T28" s="2" t="n">
-        <v>1.28789228969459</v>
+        <v>3.27224392653223</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0.005346575845168072</v>
+        <v>0.9604282227195523</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>3.27224392653223</v>
+        <v>1.73536345088072</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0.9604282227195523</v>
+        <v>7</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1.73536345088072</v>
-      </c>
-      <c r="Y28" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z28" s="2" t="n">
         <v>0.260997198539578</v>
       </c>
     </row>
@@ -8628,72 +8454,66 @@
         <v>2.340943964547807e-07</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>0.3084381099431809</v>
+        <v>7.479837837946478e-07</v>
       </c>
       <c r="E29" s="2" t="n">
-        <v>-1.415867441766622</v>
+        <v>4.686823426743311e-06</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>7.479837837946478e-07</v>
+        <v>-0.05325844820142762</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>4.686823426743311e-06</v>
+        <v>0.1156269130791127</v>
       </c>
       <c r="H29" s="2" t="n">
-        <v>-0.05325844820142762</v>
+        <v>0.01620525290287324</v>
       </c>
       <c r="I29" s="2" t="n">
-        <v>0.1156269130791127</v>
+        <v>1.736359822873395</v>
       </c>
       <c r="J29" s="2" t="n">
-        <v>0.01620525290287324</v>
+        <v>1.872754950721456</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>1.667528321446243</v>
+        <v>3.853736648365818</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>1.872754950721456</v>
+        <v>9.373119546119955e-15</v>
       </c>
       <c r="M29" s="2" t="n">
-        <v>3.853736648365818</v>
+        <v>47104059.96707131</v>
       </c>
       <c r="N29" s="2" t="n">
-        <v>9.373119546119955e-15</v>
+        <v>2.439916734895319e-06</v>
       </c>
       <c r="O29" s="2" t="n">
-        <v>47104059.96707131</v>
+        <v>20.79700702605055</v>
       </c>
       <c r="P29" s="2" t="n">
-        <v>2.439916734895319e-06</v>
+        <v>0.0001011986172704097</v>
       </c>
       <c r="Q29" s="2" t="n">
-        <v>20.79700702605055</v>
+        <v>9.130417466497644</v>
       </c>
       <c r="R29" s="2" t="n">
-        <v>0.0001011986172704097</v>
+        <v>1.628657288167006</v>
       </c>
       <c r="S29" s="2" t="n">
-        <v>9.130417466497644</v>
+        <v>0.008436374468394667</v>
       </c>
       <c r="T29" s="2" t="n">
-        <v>1.628657288167006</v>
+        <v>3.266589601195068</v>
       </c>
       <c r="U29" s="2" t="n">
-        <v>0.008436374468394667</v>
+        <v>0.9600610948957119</v>
       </c>
       <c r="V29" s="2" t="n">
-        <v>3.266589601195068</v>
+        <v>1.775599353728616</v>
       </c>
       <c r="W29" s="2" t="n">
-        <v>0.9600610948957119</v>
+        <v>6</v>
       </c>
       <c r="X29" s="2" t="n">
-        <v>1.775599353728616</v>
-      </c>
-      <c r="Y29" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z29" s="2" t="n">
         <v>0.2892847904325733</v>
       </c>
     </row>
@@ -8708,72 +8528,66 @@
         <v>2.313163193225032e-07</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>0.3325820067817096</v>
+        <v>7.546030944491459e-07</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>-1.397922387210552</v>
+        <v>4.67428310692872e-06</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>7.546030944491459e-07</v>
+        <v>-0.05438025525416938</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>4.67428310692872e-06</v>
+        <v>0.1172308142361017</v>
       </c>
       <c r="H30" s="2" t="n">
-        <v>-0.05438025525416938</v>
+        <v>0.01669840928303547</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0.1172308142361017</v>
+        <v>1.744660209714718</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>0.01669840928303547</v>
+        <v>1.740992847504756</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>1.673417331506047</v>
+        <v>3.949991180412376</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>1.740992847504756</v>
+        <v>8.921871634191192e-15</v>
       </c>
       <c r="M30" s="2" t="n">
-        <v>3.949991180412376</v>
+        <v>48651463.79913617</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>8.921871634191192e-15</v>
+        <v>2.35940912351103e-06</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>48651463.79913617</v>
+        <v>21.11775726629598</v>
       </c>
       <c r="P30" s="2" t="n">
-        <v>2.35940912351103e-06</v>
+        <v>0.000108182124075185</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>21.11775726629598</v>
+        <v>9.617328520330405</v>
       </c>
       <c r="R30" s="2" t="n">
-        <v>0.000108182124075185</v>
+        <v>1.742955550034546</v>
       </c>
       <c r="S30" s="2" t="n">
-        <v>9.617328520330405</v>
+        <v>0.01000609005325878</v>
       </c>
       <c r="T30" s="2" t="n">
-        <v>1.742955550034546</v>
+        <v>3.336012401388143</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0.01000609005325878</v>
+        <v>0.9602410089069919</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>3.336012401388143</v>
+        <v>1.754632835173039</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0.9602410089069919</v>
+        <v>6</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>1.754632835173039</v>
-      </c>
-      <c r="Y30" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z30" s="2" t="n">
         <v>0.2929553839421691</v>
       </c>
     </row>
@@ -8788,72 +8602,66 @@
         <v>2.294234921594668e-07</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>0.3542258815997898</v>
+        <v>7.556729202575948e-07</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>-1.358711570093934</v>
+        <v>4.661700033468567e-06</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7.556729202575948e-07</v>
+        <v>-0.05490636125112495</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>4.661700033468567e-06</v>
+        <v>0.1182498849526935</v>
       </c>
       <c r="H31" s="2" t="n">
-        <v>-0.05490636125112495</v>
+        <v>0.01699591135910485</v>
       </c>
       <c r="I31" s="2" t="n">
-        <v>0.1182498849526935</v>
+        <v>1.738806748705521</v>
       </c>
       <c r="J31" s="2" t="n">
-        <v>0.01699591135910485</v>
+        <v>1.830375742828548</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>1.667659156396</v>
+        <v>4.052730177656022</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>1.830375742828548</v>
+        <v>8.475256322604741e-15</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>4.052730177656022</v>
+        <v>49276430.35558787</v>
       </c>
       <c r="N31" s="2" t="n">
-        <v>8.475256322604741e-15</v>
+        <v>2.310998673978715e-06</v>
       </c>
       <c r="O31" s="2" t="n">
-        <v>49276430.35558787</v>
+        <v>20.57933423227737</v>
       </c>
       <c r="P31" s="2" t="n">
-        <v>2.310998673978715e-06</v>
+        <v>9.359758506314168e-05</v>
       </c>
       <c r="Q31" s="2" t="n">
-        <v>20.57933423227737</v>
+        <v>6.489422764286362</v>
       </c>
       <c r="R31" s="2" t="n">
-        <v>9.359758506314168e-05</v>
+        <v>2.015676628119186</v>
       </c>
       <c r="S31" s="2" t="n">
-        <v>6.489422764286362</v>
+        <v>0.003941638392067712</v>
       </c>
       <c r="T31" s="2" t="n">
-        <v>2.015676628119186</v>
+        <v>3.460799910872121</v>
       </c>
       <c r="U31" s="2" t="n">
-        <v>0.003941638392067712</v>
+        <v>0.9601872266924332</v>
       </c>
       <c r="V31" s="2" t="n">
-        <v>3.460799910872121</v>
+        <v>1.737961228475551</v>
       </c>
       <c r="W31" s="2" t="n">
-        <v>0.9601872266924332</v>
+        <v>13</v>
       </c>
       <c r="X31" s="2" t="n">
-        <v>1.737961228475551</v>
-      </c>
-      <c r="Y31" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z31" s="2" t="n">
         <v>0.2854217744393525</v>
       </c>
     </row>
@@ -8868,72 +8676,66 @@
         <v>2.284389090480746e-07</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>0.3718287616742962</v>
+        <v>7.644940519586251e-07</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>-1.296992579725156</v>
+        <v>4.649060786425052e-06</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>7.644940519586251e-07</v>
+        <v>-0.05563331744791828</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>4.649060786425052e-06</v>
+        <v>0.1190008613747489</v>
       </c>
       <c r="H32" s="2" t="n">
-        <v>-0.05563331744791828</v>
+        <v>0.01725527566122516</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0.1190008613747489</v>
+        <v>1.746065119336156</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>0.01725527566122516</v>
+        <v>1.814097973431012</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>1.677831490318671</v>
+        <v>4.051102024576182</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>1.814097973431012</v>
+        <v>8.482070166116058e-15</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>4.051102024576182</v>
+        <v>49616265.86571667</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>8.482070166116058e-15</v>
+        <v>2.301081356275941e-06</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>49616265.86571667</v>
+        <v>20.88093843090521</v>
       </c>
       <c r="P32" s="2" t="n">
-        <v>2.301081356275941e-06</v>
+        <v>9.591227245547979e-05</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>20.88093843090521</v>
+        <v>5.747068991032646</v>
       </c>
       <c r="R32" s="2" t="n">
-        <v>9.591227245547979e-05</v>
+        <v>1.368525003809304</v>
       </c>
       <c r="S32" s="2" t="n">
-        <v>5.747068991032646</v>
+        <v>0.00316786745512132</v>
       </c>
       <c r="T32" s="2" t="n">
-        <v>1.368525003809304</v>
+        <v>3.408386500379571</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0.00316786745512132</v>
+        <v>0.9612331273423412</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>3.408386500379571</v>
+        <v>1.770413016918821</v>
       </c>
       <c r="W32" s="2" t="n">
-        <v>0.9612331273423412</v>
+        <v>10</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>1.770413016918821</v>
-      </c>
-      <c r="Y32" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z32" s="2" t="n">
         <v>0.2629287329968275</v>
       </c>
     </row>
@@ -8948,72 +8750,66 @@
         <v>2.280611396256446e-07</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>0.3830914281444641</v>
+        <v>7.908212868340238e-07</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>-1.219415145187245</v>
+        <v>4.636269118490181e-06</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>7.908212868340238e-07</v>
+        <v>-0.0563434908739044</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>4.636269118490181e-06</v>
+        <v>0.1194075661622019</v>
       </c>
       <c r="H33" s="2" t="n">
-        <v>-0.0563434908739044</v>
+        <v>0.01743184079629675</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0.1194075661622019</v>
+        <v>1.747678290794415</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>0.01743184079629675</v>
+        <v>1.774028148479511</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>1.678344023828793</v>
+        <v>4.038279837028822</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>1.774028148479511</v>
+        <v>8.536019551509668e-15</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>4.038279837028822</v>
+        <v>49124621.43798321</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>8.536019551509668e-15</v>
+        <v>2.325343290703188e-06</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>49124621.43798321</v>
+        <v>20.59936507290416</v>
       </c>
       <c r="P33" s="2" t="n">
-        <v>2.325343290703188e-06</v>
+        <v>9.687940185283347e-05</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>20.59936507290416</v>
+        <v>6.302800537269117</v>
       </c>
       <c r="R33" s="2" t="n">
-        <v>9.687940185283347e-05</v>
+        <v>1.247126737635771</v>
       </c>
       <c r="S33" s="2" t="n">
-        <v>6.302800537269117</v>
+        <v>0.003848562780496263</v>
       </c>
       <c r="T33" s="2" t="n">
-        <v>1.247126737635771</v>
+        <v>3.322683283670988</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0.003848562780496263</v>
+        <v>0.9607076061419592</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>3.322683283670988</v>
+        <v>1.762510850296796</v>
       </c>
       <c r="W33" s="2" t="n">
-        <v>0.9607076061419592</v>
+        <v>10</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>1.762510850296796</v>
-      </c>
-      <c r="Y33" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z33" s="2" t="n">
         <v>0.2610462816115413</v>
       </c>
     </row>
@@ -9028,72 +8824,66 @@
         <v>2.282433364532384e-07</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>0.3907066734778425</v>
+        <v>8.12030871618079e-07</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>-1.129172758776985</v>
+        <v>4.623444142883196e-06</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>8.12030871618079e-07</v>
+        <v>-0.05596537817897268</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>4.623444142883196e-06</v>
+        <v>0.1191820027337099</v>
       </c>
       <c r="H34" s="2" t="n">
-        <v>-0.05596537817897268</v>
+        <v>0.01733555471638886</v>
       </c>
       <c r="I34" s="2" t="n">
-        <v>0.1191820027337099</v>
+        <v>1.745477702138977</v>
       </c>
       <c r="J34" s="2" t="n">
-        <v>0.01733555471638886</v>
+        <v>1.763471280425806</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>1.677549252600617</v>
+        <v>4.015246792957689</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>1.763471280425806</v>
+        <v>8.63423240991422e-15</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>4.015246792957689</v>
+        <v>48533396.78498717</v>
       </c>
       <c r="N34" s="2" t="n">
-        <v>8.63423240991422e-15</v>
+        <v>2.351837124006841e-06</v>
       </c>
       <c r="O34" s="2" t="n">
-        <v>48533396.78498717</v>
+        <v>20.33785330989315</v>
       </c>
       <c r="P34" s="2" t="n">
-        <v>2.351837124006841e-06</v>
+        <v>9.621806725792486e-05</v>
       </c>
       <c r="Q34" s="2" t="n">
-        <v>20.33785330989315</v>
+        <v>8.067377777576935</v>
       </c>
       <c r="R34" s="2" t="n">
-        <v>9.621806725792486e-05</v>
+        <v>1.581106206182779</v>
       </c>
       <c r="S34" s="2" t="n">
-        <v>8.067377777576935</v>
+        <v>0.006262120464466146</v>
       </c>
       <c r="T34" s="2" t="n">
-        <v>1.581106206182779</v>
+        <v>3.271805256766549</v>
       </c>
       <c r="U34" s="2" t="n">
-        <v>0.006262120464466146</v>
+        <v>0.9615657060792322</v>
       </c>
       <c r="V34" s="2" t="n">
-        <v>3.271805256766549</v>
+        <v>1.723981609345665</v>
       </c>
       <c r="W34" s="2" t="n">
-        <v>0.9615657060792322</v>
+        <v>10</v>
       </c>
       <c r="X34" s="2" t="n">
-        <v>1.723981609345665</v>
-      </c>
-      <c r="Y34" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z34" s="2" t="n">
         <v>0.2742231648607966</v>
       </c>
     </row>
@@ -9108,72 +8898,66 @@
         <v>2.289408477101558e-07</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>0.3988258300251302</v>
+        <v>8.272231604587205e-07</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>-1.03098557747405</v>
+        <v>4.610746022085658e-06</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>8.272231604587205e-07</v>
+        <v>-0.05514716355285551</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>4.610746022085658e-06</v>
+        <v>0.1186533926280631</v>
       </c>
       <c r="H35" s="2" t="n">
-        <v>-0.05514716355285551</v>
+        <v>0.01711956382538873</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0.1186533926280631</v>
+        <v>1.743530906357601</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>0.01711956382538873</v>
+        <v>1.738661628383475</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>1.676333981922802</v>
+        <v>3.993446477368213</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>1.738661628383475</v>
+        <v>8.728758662193635e-15</v>
       </c>
       <c r="M35" s="2" t="n">
-        <v>3.993446477368213</v>
+        <v>49116648.76899209</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>8.728758662193635e-15</v>
+        <v>2.330343393661316e-06</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>49116648.76899209</v>
+        <v>21.05765181695319</v>
       </c>
       <c r="P35" s="2" t="n">
-        <v>2.330343393661316e-06</v>
+        <v>0.0001073834192623744</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>21.05765181695319</v>
+        <v>10.29077799858764</v>
       </c>
       <c r="R35" s="2" t="n">
-        <v>0.0001073834192623744</v>
+        <v>1.531921595406782</v>
       </c>
       <c r="S35" s="2" t="n">
-        <v>10.29077799858764</v>
+        <v>0.01137191610709301</v>
       </c>
       <c r="T35" s="2" t="n">
-        <v>1.531921595406782</v>
+        <v>3.201398639490014</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0.01137191610709301</v>
+        <v>0.9622860949830716</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>3.201398639490014</v>
+        <v>1.759609238417532</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>0.9622860949830716</v>
+        <v>10</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>1.759609238417532</v>
-      </c>
-      <c r="Y35" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z35" s="2" t="n">
         <v>0.2987237242357215</v>
       </c>
     </row>
@@ -9188,72 +8972,66 @@
         <v>2.298021945363766e-07</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>0.4101344582931164</v>
+        <v>8.343630995891852e-07</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>-0.9322247854218388</v>
+        <v>4.598194435212719e-06</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>8.343630995891852e-07</v>
+        <v>-0.05427889577621951</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>4.598194435212719e-06</v>
+        <v>0.1182330294696784</v>
       </c>
       <c r="H36" s="2" t="n">
-        <v>-0.05427889577621951</v>
+        <v>0.01692545900660694</v>
       </c>
       <c r="I36" s="2" t="n">
-        <v>0.1182330294696784</v>
+        <v>1.740945540688441</v>
       </c>
       <c r="J36" s="2" t="n">
-        <v>0.01692545900660694</v>
+        <v>1.669792977393807</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>1.671461247683434</v>
+        <v>3.9544473290144</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>1.669792977393807</v>
+        <v>8.901775382092502e-15</v>
       </c>
       <c r="M36" s="2" t="n">
-        <v>3.9544473290144</v>
+        <v>47333773.36095079</v>
       </c>
       <c r="N36" s="2" t="n">
-        <v>8.901775382092502e-15</v>
+        <v>2.416323542180191e-06</v>
       </c>
       <c r="O36" s="2" t="n">
-        <v>47333773.36095079</v>
+        <v>19.94430401411559</v>
       </c>
       <c r="P36" s="2" t="n">
-        <v>2.416323542180191e-06</v>
+        <v>9.724716904644321e-05</v>
       </c>
       <c r="Q36" s="2" t="n">
-        <v>19.94430401411559</v>
+        <v>8.522442112325194</v>
       </c>
       <c r="R36" s="2" t="n">
-        <v>9.724716904644321e-05</v>
+        <v>1.811796779226869</v>
       </c>
       <c r="S36" s="2" t="n">
-        <v>8.522442112325194</v>
+        <v>0.007063258284134968</v>
       </c>
       <c r="T36" s="2" t="n">
-        <v>1.811796779226869</v>
+        <v>3.414795028378355</v>
       </c>
       <c r="U36" s="2" t="n">
-        <v>0.007063258284134968</v>
+        <v>0.9616405885416425</v>
       </c>
       <c r="V36" s="2" t="n">
-        <v>3.414795028378355</v>
+        <v>1.77756131334992</v>
       </c>
       <c r="W36" s="2" t="n">
-        <v>0.9616405885416425</v>
+        <v>10</v>
       </c>
       <c r="X36" s="2" t="n">
-        <v>1.77756131334992</v>
-      </c>
-      <c r="Y36" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z36" s="2" t="n">
         <v>0.3002398150183135</v>
       </c>
     </row>
@@ -9268,72 +9046,66 @@
         <v>2.303414106727483e-07</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>0.4276810341497032</v>
+        <v>8.346139891093675e-07</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>-0.8371924034848144</v>
+        <v>4.585794363379419e-06</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>8.346139891093675e-07</v>
+        <v>-0.05348107929203025</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4.585794363379419e-06</v>
+        <v>0.1182210116519147</v>
       </c>
       <c r="H37" s="2" t="n">
-        <v>-0.05348107929203025</v>
+        <v>0.01683671637280097</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0.1182210116519147</v>
+        <v>1.740334387589185</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>0.01683671637280097</v>
+        <v>1.634235445771572</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>1.669933273882019</v>
+        <v>4.080516308638685</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>1.634235445771572</v>
+        <v>8.36022539585923e-15</v>
       </c>
       <c r="M37" s="2" t="n">
-        <v>4.080516308638685</v>
+        <v>51195729.9599191</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>8.36022539585923e-15</v>
+        <v>2.230529470210228e-06</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>51195729.9599191</v>
+        <v>21.9121738880086</v>
       </c>
       <c r="P37" s="2" t="n">
-        <v>2.230529470210228e-06</v>
+        <v>9.168878685670209e-05</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>21.9121738880086</v>
+        <v>6.015422091144549</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>9.168878685670209e-05</v>
+        <v>1.956340129353749</v>
       </c>
       <c r="S37" s="2" t="n">
-        <v>6.015422091144549</v>
+        <v>0.003317786528118473</v>
       </c>
       <c r="T37" s="2" t="n">
-        <v>1.956340129353749</v>
+        <v>3.513454996131218</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0.003317786528118473</v>
+        <v>0.961472597853063</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>3.513454996131218</v>
+        <v>1.719865538104455</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>0.961472597853063</v>
+        <v>10</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>1.719865538104455</v>
-      </c>
-      <c r="Y37" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z37" s="2" t="n">
         <v>0.291889508172333</v>
       </c>
     </row>
@@ -9348,72 +9120,66 @@
         <v>2.302662733016014e-07</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>0.4532557044089027</v>
+        <v>8.346139891093675e-07</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>-0.7442680821148069</v>
+        <v>4.573595459802326e-06</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>8.346139891093675e-07</v>
+        <v>-0.05239625371475339</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>4.573595459802326e-06</v>
+        <v>0.1186025973051966</v>
       </c>
       <c r="H38" s="2" t="n">
-        <v>-0.05239625371475339</v>
+        <v>0.01681190462657991</v>
       </c>
       <c r="I38" s="2" t="n">
-        <v>0.1186025973051966</v>
+        <v>1.723375387967779</v>
       </c>
       <c r="J38" s="2" t="n">
-        <v>0.01681190462657991</v>
+        <v>1.709606874147642</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>1.646208870339625</v>
+        <v>3.724154475486422</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>1.709606874147642</v>
+        <v>7.640229465926498e-15</v>
       </c>
       <c r="M38" s="2" t="n">
-        <v>3.724154475486422</v>
+        <v>57614632.9754017</v>
       </c>
       <c r="N38" s="2" t="n">
-        <v>7.640229465926498e-15</v>
+        <v>1.980371384700297e-06</v>
       </c>
       <c r="O38" s="2" t="n">
-        <v>57614632.9754017</v>
+        <v>25.36132862701792</v>
       </c>
       <c r="P38" s="2" t="n">
-        <v>1.980371384700297e-06</v>
+        <v>0.0001024683705871426</v>
       </c>
       <c r="Q38" s="2" t="n">
-        <v>25.36132862701792</v>
+        <v>6.628539756208403</v>
       </c>
       <c r="R38" s="2" t="n">
-        <v>0.0001024683705871426</v>
+        <v>1.535922190665778</v>
       </c>
       <c r="S38" s="2" t="n">
-        <v>6.628539756208403</v>
+        <v>0.004502208059642178</v>
       </c>
       <c r="T38" s="2" t="n">
-        <v>1.535922190665778</v>
+        <v>3.431118474940507</v>
       </c>
       <c r="U38" s="2" t="n">
-        <v>0.004502208059642178</v>
+        <v>0.9609841049320759</v>
       </c>
       <c r="V38" s="2" t="n">
-        <v>3.431118474940507</v>
+        <v>1.760551217585055</v>
       </c>
       <c r="W38" s="2" t="n">
-        <v>0.9609841049320759</v>
+        <v>13</v>
       </c>
       <c r="X38" s="2" t="n">
-        <v>1.760551217585055</v>
-      </c>
-      <c r="Y38" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="Z38" s="2" t="n">
         <v>0.2828444538218428</v>
       </c>
     </row>
@@ -9428,72 +9194,66 @@
         <v>2.30052560752219e-07</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>0.4842004849115254</v>
+        <v>8.358615785174068e-07</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>-0.6474122670718421</v>
+        <v>4.561643962006966e-06</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>8.358615785174068e-07</v>
+        <v>-0.0515560894693215</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>4.561643962006966e-06</v>
+        <v>0.1186374528829254</v>
       </c>
       <c r="H39" s="2" t="n">
-        <v>-0.0515560894693215</v>
+        <v>0.01673239394135491</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0.1186374528829254</v>
+        <v>1.756625397595621</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>0.01673239394135491</v>
+        <v>1.748086561451057</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>1.684667086726285</v>
+        <v>3.663720687200886</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>1.748086561451057</v>
+        <v>7.894362461640309e-15</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>3.663720687200886</v>
+        <v>54307765.70467982</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>7.894362461640309e-15</v>
+        <v>2.123491764738509e-06</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>54307765.70467982</v>
+        <v>23.28310700482446</v>
       </c>
       <c r="P39" s="2" t="n">
-        <v>2.123491764738509e-06</v>
+        <v>0.0001563446734800183</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>23.28310700482446</v>
+        <v>9.244904750783576</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0.0001563446734800183</v>
+        <v>1.487186508801294</v>
       </c>
       <c r="S39" s="2" t="n">
-        <v>9.244904750783576</v>
+        <v>0.01336250780469815</v>
       </c>
       <c r="T39" s="2" t="n">
-        <v>1.487186508801294</v>
+        <v>3.106466646070132</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0.01336250780469815</v>
+        <v>0.9608161451329048</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>3.106466646070132</v>
+        <v>1.735980481959057</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>0.9608161451329048</v>
+        <v>12</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>1.735980481959057</v>
-      </c>
-      <c r="Y39" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z39" s="2" t="n">
         <v>0.2367212637519975</v>
       </c>
     </row>
@@ -9508,72 +9268,66 @@
         <v>2.301075661581579e-07</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>0.5158297324377501</v>
+        <v>8.521119100377345e-07</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>-0.5446531418261604</v>
+        <v>4.549823762011316e-06</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>8.521119100377345e-07</v>
+        <v>-0.05132299152000803</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4.549823762011316e-06</v>
+        <v>0.1185572698414183</v>
       </c>
       <c r="H40" s="2" t="n">
-        <v>-0.05132299152000803</v>
+        <v>0.01668955274591871</v>
       </c>
       <c r="I40" s="2" t="n">
-        <v>0.1185572698414183</v>
+        <v>1.780707035110356</v>
       </c>
       <c r="J40" s="2" t="n">
-        <v>0.01668955274591871</v>
+        <v>1.801227336546085</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>1.712732016126771</v>
+        <v>3.74923966845984</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>1.801227336546085</v>
+        <v>7.538333889792967e-15</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>3.74923966845984</v>
+        <v>56587007.08509075</v>
       </c>
       <c r="N40" s="2" t="n">
-        <v>7.538333889792967e-15</v>
+        <v>2.04841675933572e-06</v>
       </c>
       <c r="O40" s="2" t="n">
-        <v>56587007.08509075</v>
+        <v>24.13841882241015</v>
       </c>
       <c r="P40" s="2" t="n">
-        <v>2.04841675933572e-06</v>
+        <v>0.0001609607357080534</v>
       </c>
       <c r="Q40" s="2" t="n">
-        <v>24.13841882241015</v>
+        <v>10.71082092738562</v>
       </c>
       <c r="R40" s="2" t="n">
-        <v>0.0001609607357080534</v>
+        <v>1.225070176544389</v>
       </c>
       <c r="S40" s="2" t="n">
-        <v>10.71082092738562</v>
+        <v>0.01846568680937196</v>
       </c>
       <c r="T40" s="2" t="n">
-        <v>1.225070176544389</v>
+        <v>2.943050337124014</v>
       </c>
       <c r="U40" s="2" t="n">
-        <v>0.01846568680937196</v>
+        <v>0.9618144883050866</v>
       </c>
       <c r="V40" s="2" t="n">
-        <v>2.943050337124014</v>
+        <v>1.711478584285826</v>
       </c>
       <c r="W40" s="2" t="n">
-        <v>0.9618144883050866</v>
+        <v>11</v>
       </c>
       <c r="X40" s="2" t="n">
-        <v>1.711478584285826</v>
-      </c>
-      <c r="Y40" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z40" s="2" t="n">
         <v>0.232700106748677</v>
       </c>
     </row>
@@ -9588,72 +9342,66 @@
         <v>2.303787971930842e-07</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>0.5453096596022365</v>
+        <v>8.696246877007237e-07</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>-0.435765153841333</v>
+        <v>4.537962090631631e-06</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>8.696246877007237e-07</v>
+        <v>-0.05186635518626679</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>4.537962090631631e-06</v>
+        <v>0.1184303678231628</v>
       </c>
       <c r="H41" s="2" t="n">
-        <v>-0.05186635518626679</v>
+        <v>0.01671586495700343</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0.1184303678231628</v>
+        <v>1.804498039747016</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>0.01671586495700343</v>
+        <v>1.764165974475354</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>1.741778409755361</v>
+        <v>3.866058400830237</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>1.764165974475354</v>
+        <v>7.089652615176141e-15</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>3.866058400830237</v>
+        <v>59836714.65290203</v>
       </c>
       <c r="N41" s="2" t="n">
-        <v>7.089652615176141e-15</v>
+        <v>1.946918181828922e-06</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>59836714.65290203</v>
+        <v>25.38402207312478</v>
       </c>
       <c r="P41" s="2" t="n">
-        <v>1.946918181828922e-06</v>
+        <v>0.0001331117226214054</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>25.38402207312478</v>
+        <v>10.06688601875139</v>
       </c>
       <c r="R41" s="2" t="n">
-        <v>0.0001331117226214054</v>
+        <v>1.112519975687684</v>
       </c>
       <c r="S41" s="2" t="n">
-        <v>10.06688601875139</v>
+        <v>0.01348983403281823</v>
       </c>
       <c r="T41" s="2" t="n">
-        <v>1.112519975687684</v>
+        <v>2.953909011918395</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0.01348983403281823</v>
+        <v>0.9612255760930637</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>2.953909011918395</v>
+        <v>1.71649650114871</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>0.9612255760930637</v>
+        <v>22</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>1.71649650114871</v>
-      </c>
-      <c r="Y41" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="Z41" s="2" t="n">
         <v>0.2447519018376305</v>
       </c>
     </row>
@@ -9668,72 +9416,66 @@
         <v>2.305155026181025e-07</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>0.5713492042115337</v>
+        <v>8.850826486315062e-07</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>-0.3186415799425313</v>
+        <v>4.52585375062752e-06</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>8.850826486315062e-07</v>
+        <v>-0.05336683187311093</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>4.52585375062752e-06</v>
+        <v>0.1179232767616003</v>
       </c>
       <c r="H42" s="2" t="n">
-        <v>-0.05336683187311093</v>
+        <v>0.01675379986485897</v>
       </c>
       <c r="I42" s="2" t="n">
-        <v>0.1179232767616003</v>
+        <v>1.832668863000592</v>
       </c>
       <c r="J42" s="2" t="n">
-        <v>0.01675379986485897</v>
+        <v>1.644530222179056</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>1.790046645603116</v>
+        <v>4.163012355229751</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>1.644530222179056</v>
+        <v>6.112023934023462e-15</v>
       </c>
       <c r="M42" s="2" t="n">
-        <v>4.163012355229751</v>
+        <v>64460597.82396504</v>
       </c>
       <c r="N42" s="2" t="n">
-        <v>6.112023934023462e-15</v>
+        <v>1.811722245358172e-06</v>
       </c>
       <c r="O42" s="2" t="n">
-        <v>64460597.82396504</v>
+        <v>25.39649037208644</v>
       </c>
       <c r="P42" s="2" t="n">
-        <v>1.811722245358172e-06</v>
+        <v>0.0001254248566759309</v>
       </c>
       <c r="Q42" s="2" t="n">
-        <v>25.39649037208644</v>
+        <v>8.849979531278439</v>
       </c>
       <c r="R42" s="2" t="n">
-        <v>0.0001254248566759309</v>
+        <v>1.178147095953478</v>
       </c>
       <c r="S42" s="2" t="n">
-        <v>8.849979531278439</v>
+        <v>0.009823542896082662</v>
       </c>
       <c r="T42" s="2" t="n">
-        <v>1.178147095953478</v>
+        <v>3.011576682256328</v>
       </c>
       <c r="U42" s="2" t="n">
-        <v>0.009823542896082662</v>
+        <v>0.961400323863833</v>
       </c>
       <c r="V42" s="2" t="n">
-        <v>3.011576682256328</v>
+        <v>1.647627273173012</v>
       </c>
       <c r="W42" s="2" t="n">
-        <v>0.961400323863833</v>
+        <v>21</v>
       </c>
       <c r="X42" s="2" t="n">
-        <v>1.647627273173012</v>
-      </c>
-      <c r="Y42" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z42" s="2" t="n">
         <v>0.2449603035413299</v>
       </c>
     </row>
@@ -9748,72 +9490,66 @@
         <v>2.29937581523234e-07</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>0.5923085073432429</v>
+        <v>8.962559429679467e-07</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>-0.1910014014563974</v>
+        <v>4.513268539902127e-06</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>8.962559429679467e-07</v>
+        <v>-0.05615312536287233</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>4.513268539902127e-06</v>
+        <v>0.1162212024300317</v>
       </c>
       <c r="H43" s="2" t="n">
-        <v>-0.05615312536287233</v>
+        <v>0.01665916879382468</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0.1162212024300317</v>
+        <v>1.832925401922089</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>0.01665916879382468</v>
+        <v>1.787790295042537</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>1.803259731294425</v>
+        <v>4.09028650078658</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>1.787790295042537</v>
+        <v>4.535708459963166e-15</v>
       </c>
       <c r="M43" s="2" t="n">
-        <v>4.09028650078658</v>
+        <v>86417024.39945032</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>4.535708459963166e-15</v>
+        <v>1.352397376786606e-06</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>86417024.39945032</v>
+        <v>33.87222676061128</v>
       </c>
       <c r="P43" s="2" t="n">
-        <v>1.352397376786606e-06</v>
+        <v>0.0001257389537269371</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>33.87222676061128</v>
+        <v>7.713322575501722</v>
       </c>
       <c r="R43" s="2" t="n">
-        <v>0.0001257389537269371</v>
+        <v>1.31003583995302</v>
       </c>
       <c r="S43" s="2" t="n">
-        <v>7.713322575501722</v>
+        <v>0.007480882451254831</v>
       </c>
       <c r="T43" s="2" t="n">
-        <v>1.31003583995302</v>
+        <v>3.145190939393454</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0.007480882451254831</v>
+        <v>0.9613105428643914</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>3.145190939393454</v>
+        <v>1.650078566519732</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>0.9613105428643914</v>
+        <v>21</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>1.650078566519732</v>
-      </c>
-      <c r="Y43" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="Z43" s="2" t="n">
         <v>0.2314967442051926</v>
       </c>
     </row>
@@ -10190,7 +9926,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.810963383598424</v>
+        <v>1.837676912139163</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.054887989120957</v>
@@ -10279,7 +10015,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.801657342755449</v>
+        <v>1.826681508660467</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.039424045965732</v>
@@ -10368,7 +10104,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.844278151136492</v>
+        <v>1.862595354846756</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.560990520448073</v>
@@ -10457,7 +10193,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.84999663613793</v>
+        <v>1.867418955959525</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.16167918493646</v>
@@ -10546,7 +10282,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.84844497572804</v>
+        <v>1.871168299319544</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.106944448063159</v>
@@ -10635,7 +10371,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.865091526702438</v>
+        <v>1.883500060089863</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.34184426947066</v>
@@ -10724,7 +10460,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.868411029362978</v>
+        <v>1.88839230248445</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.622494779441355</v>
@@ -10813,7 +10549,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.87792703575638</v>
+        <v>1.894150869712778</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.878250785260152</v>
@@ -10902,7 +10638,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.879804483460115</v>
+        <v>1.899531670417584</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.631604289601086</v>
@@ -10991,7 +10727,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.879211102490753</v>
+        <v>1.895948152211565</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.156893330540629</v>
@@ -11080,7 +10816,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.89987775311276</v>
+        <v>1.911422187223144</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.326806463599155</v>
@@ -11169,7 +10905,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.902958840238444</v>
+        <v>1.910663390528808</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.507759029776803</v>
@@ -11258,7 +10994,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.91143780409427</v>
+        <v>1.92155091417652</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.851306048815228</v>
@@ -11347,7 +11083,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.904393915333191</v>
+        <v>1.913663219346648</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.301237274193929</v>
@@ -11436,7 +11172,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.914836837887147</v>
+        <v>1.924486667524774</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.407139069871988</v>
@@ -11525,7 +11261,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.894374074728483</v>
+        <v>1.897634511660236</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.250460165954368</v>
@@ -11614,7 +11350,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.913351176557208</v>
+        <v>1.909573075429958</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.656928944383868</v>
@@ -11703,7 +11439,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.913541304338036</v>
+        <v>1.906149055463839</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.116223041516375</v>
@@ -11792,7 +11528,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.892733030719271</v>
+        <v>1.889516364274997</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.418619147919032</v>
@@ -11881,7 +11617,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.892172171697167</v>
+        <v>1.884173310444255</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.419545724260594</v>
@@ -11970,7 +11706,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.891988937580118</v>
+        <v>1.884200758205463</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.670527644519201</v>
@@ -12059,7 +11795,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.891644093126382</v>
+        <v>1.882512803368658</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.173916094330978</v>
@@ -12148,7 +11884,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.883610962269917</v>
+        <v>1.881068309711145</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.375794682533497</v>
@@ -12237,7 +11973,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.881330511790622</v>
+        <v>1.878542870688844</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.494312363980045</v>
@@ -12326,7 +12062,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.879077594447726</v>
+        <v>1.875836078913375</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.405913003200182</v>
@@ -12415,7 +12151,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.880385210841029</v>
+        <v>1.878556653516739</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.108442352073242</v>
@@ -12504,7 +12240,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.883643635820756</v>
+        <v>1.884270519991337</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.182556023523121</v>
@@ -12593,7 +12329,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.892521004890839</v>
+        <v>1.891967489329624</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.097723237713248</v>
@@ -12682,7 +12418,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.886594774232533</v>
+        <v>1.88689490203082</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.424780033546451</v>
@@ -12771,7 +12507,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.890147584397535</v>
+        <v>1.890416947327741</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.994364941412749</v>
@@ -12860,7 +12596,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.908216063370431</v>
+        <v>1.911736523111861</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.94680490890811</v>
@@ -12949,7 +12685,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.917060538087932</v>
+        <v>1.921710296564382</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.742330418454011</v>
@@ -13038,7 +12774,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.924496811530136</v>
+        <v>1.934497121783825</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.864431707681021</v>
@@ -13127,7 +12863,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.939205972568922</v>
+        <v>1.945645832789845</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.946042685095655</v>
@@ -13216,7 +12952,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.948562061733007</v>
+        <v>1.959474102172209</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.156064186947647</v>
@@ -13305,7 +13041,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.949163451675609</v>
+        <v>1.961308585761424</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.850864763433532</v>
@@ -13394,7 +13130,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.952462425566212</v>
+        <v>1.967750712782619</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.740227982529354</v>
@@ -13483,7 +13219,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.964224269089349</v>
+        <v>1.97575121438725</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.285144824087431</v>
@@ -13572,7 +13308,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.966148026994594</v>
+        <v>1.977296819543378</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.843405991453496</v>
@@ -13661,7 +13397,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.969621257210018</v>
+        <v>1.982005807913507</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.046820417105336</v>
@@ -13750,7 +13486,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.969901801878856</v>
+        <v>1.983408933288813</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.323763126634696</v>
@@ -13839,7 +13575,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.954452281079469</v>
+        <v>1.971536859313423</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.788926517233558</v>
@@ -13928,7 +13664,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.95361210198309</v>
+        <v>1.970137301442592</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>4.016054353944257</v>
@@ -14017,7 +13753,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.970864293886737</v>
+        <v>1.985629552032558</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.767220642698981</v>
@@ -14106,7 +13842,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.970422902762695</v>
+        <v>1.986472161707983</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>4.448825371205789</v>
@@ -14195,7 +13931,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.961940861534283</v>
+        <v>1.983475119161304</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.642330646533738</v>
@@ -14284,7 +14020,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.739262229518232</v>
+        <v>1.785271791291648</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>1.923405065936995</v>
@@ -14373,7 +14109,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.708923618080451</v>
+        <v>1.757754321658489</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>1.932944658690219</v>
@@ -14462,7 +14198,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.707651419351017</v>
+        <v>1.757591279448588</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>1.930598588132257</v>
@@ -14551,7 +14287,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.697853133640892</v>
+        <v>1.746756388400724</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>1.90485905811036</v>
@@ -14640,7 +14376,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.69445950552074</v>
+        <v>1.741342233080664</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>1.901177622361429</v>
@@ -14729,7 +14465,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.69445504275363</v>
+        <v>1.739912808943279</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>1.889345833743177</v>
@@ -14818,7 +14554,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.68574808617344</v>
+        <v>1.728408868806937</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>1.8890892173301</v>
@@ -14907,7 +14643,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.682109586274346</v>
+        <v>1.725510702264999</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>1.879765179246761</v>
@@ -14996,7 +14732,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.682636377181659</v>
+        <v>1.728211860451853</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>1.883808631468823</v>
@@ -15085,7 +14821,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.664672638313793</v>
+        <v>1.710731124016218</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>1.868953901062538</v>
@@ -15174,7 +14910,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.67452163328072</v>
+        <v>1.722506605721077</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>1.852107066019175</v>
@@ -15263,7 +14999,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.676218828232921</v>
+        <v>1.722729651606212</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>1.87501400093838</v>
@@ -15352,7 +15088,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.672380307338179</v>
+        <v>1.720589150022471</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>1.856266936613541</v>
@@ -15441,7 +15177,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.65894978592975</v>
+        <v>1.708571838975573</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>1.846401034289031</v>
@@ -15530,7 +15266,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.654663123658464</v>
+        <v>1.700132524449824</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>1.908598157181602</v>
@@ -15619,7 +15355,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.866640649867698</v>
+        <v>1.89764448269508</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.690674333652548</v>
@@ -15708,7 +15444,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.900145910514828</v>
+        <v>1.924871676770462</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.537085086370056</v>
@@ -15797,7 +15533,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.895130896901243</v>
+        <v>1.918921115268165</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.1070545200872</v>
@@ -15886,7 +15622,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.884107097346047</v>
+        <v>1.911344277289657</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.214142829984807</v>
@@ -15975,7 +15711,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.883268938685924</v>
+        <v>1.917284991481635</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.495195772263728</v>
@@ -16064,7 +15800,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.884703859610084</v>
+        <v>1.915143862324291</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.36440880210877</v>
@@ -16153,7 +15889,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.890190118394409</v>
+        <v>1.927083997165326</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.584175148573852</v>
@@ -16242,7 +15978,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.88958469599781</v>
+        <v>1.922600165706757</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.306007447918481</v>
@@ -16331,7 +16067,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.884644570200035</v>
+        <v>1.920710897995973</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.220662564746269</v>
@@ -16420,7 +16156,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.903695027497418</v>
+        <v>1.939533534954649</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.273127137429733</v>
@@ -16509,7 +16245,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.900783119628324</v>
+        <v>1.93286417228042</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.778329389005546</v>
@@ -16598,7 +16334,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.895812566889841</v>
+        <v>1.932148542592695</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.545597497409491</v>
@@ -16687,7 +16423,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.72187410537304</v>
+        <v>1.74434812429316</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>1.781391846622542</v>
@@ -16776,7 +16512,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.671108567488466</v>
+        <v>1.712285835122753</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>1.768458150066646</v>
@@ -16865,7 +16601,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.679780196028984</v>
+        <v>1.720290925637241</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>1.785564922277971</v>
@@ -16954,7 +16690,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.678293341232704</v>
+        <v>1.71699330635041</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>1.785460282833326</v>
@@ -17043,7 +16779,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.677381032050284</v>
+        <v>1.717843341560044</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>1.784117201996873</v>
@@ -17132,7 +16868,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.678289556205223</v>
+        <v>1.722201214436477</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>1.79790416607886</v>
@@ -17221,7 +16957,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.680930189797422</v>
+        <v>1.722757124633696</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>1.804460799391771</v>
@@ -17310,7 +17046,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.681679594799561</v>
+        <v>1.722226992272934</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>1.800918618045891</v>
@@ -17399,7 +17135,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.678460008923079</v>
+        <v>1.717166054685614</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>1.813197849657194</v>
@@ -17488,7 +17224,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.678151069611966</v>
+        <v>1.717033300000898</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>1.815582125163196</v>
@@ -17577,7 +17313,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.678795598264404</v>
+        <v>1.719242501185218</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>1.804407193735218</v>
@@ -17666,7 +17402,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.681110155556291</v>
+        <v>1.721257978396268</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>1.808705634198112</v>
@@ -17755,7 +17491,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.686630327787804</v>
+        <v>1.725472629911854</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>1.803526310310462</v>
@@ -17844,7 +17580,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.685912466051722</v>
+        <v>1.724802441828102</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>1.811592811849582</v>
@@ -18130,7 +17866,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.578088459243715</v>
+        <v>1.587559168006943</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.555643049079074</v>
@@ -18219,7 +17955,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.607662471507475</v>
+        <v>1.621101164377053</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.580032032627491</v>
@@ -18308,7 +18044,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.641061412017502</v>
+        <v>1.655504137013576</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.781584006276187</v>
@@ -18397,7 +18133,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.666036794104063</v>
+        <v>1.669457222320611</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.024254342729123</v>
@@ -18486,7 +18222,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.663728714037472</v>
+        <v>1.665221452710693</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.0307303667137</v>
@@ -18575,7 +18311,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.65456952321265</v>
+        <v>1.655830793417767</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.907511697636915</v>
@@ -18664,7 +18400,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.655084631435031</v>
+        <v>1.66140447162239</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.060403354092085</v>
@@ -18753,7 +18489,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.649943722316217</v>
+        <v>1.660509592281707</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.543362610525341</v>
@@ -18842,7 +18578,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.652677166692222</v>
+        <v>1.662108163254672</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.984427738081054</v>
@@ -18931,7 +18667,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.65319261454265</v>
+        <v>1.657624118014552</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.87094286970363</v>
@@ -19020,7 +18756,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.627566595722918</v>
+        <v>1.629693710565195</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.829686362208172</v>
@@ -19109,7 +18845,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.617307962149619</v>
+        <v>1.614655629754853</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.626724732338013</v>
@@ -19198,7 +18934,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.640809861514242</v>
+        <v>1.633602192287407</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.702654946665732</v>
@@ -19287,7 +19023,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.637276606666652</v>
+        <v>1.634038129206265</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.836485081653169</v>
@@ -19376,7 +19112,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.633888880203401</v>
+        <v>1.630375263432141</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.610932151961626</v>
@@ -19465,7 +19201,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.625556268053499</v>
+        <v>1.612576820637609</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.680728517254571</v>
@@ -19554,7 +19290,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.604341082495289</v>
+        <v>1.589473460770263</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.722023548500294</v>
@@ -19643,7 +19379,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.589927150400674</v>
+        <v>1.581283353179882</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.814443634177656</v>
@@ -19732,7 +19468,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.570403290107487</v>
+        <v>1.564895750374073</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.820775355125908</v>
@@ -19821,7 +19557,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.571170808801486</v>
+        <v>1.566366069757913</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.661882572098405</v>
@@ -19910,7 +19646,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.56944860457843</v>
+        <v>1.562959419463562</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.358228822315071</v>
@@ -19999,7 +19735,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.556687950549889</v>
+        <v>1.550395159951344</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.75540779421731</v>
@@ -20088,7 +19824,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.552868480074964</v>
+        <v>1.54420619684761</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.637294820511069</v>
@@ -20177,7 +19913,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.543754577939664</v>
+        <v>1.537675915952489</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.792627318474342</v>
@@ -20266,7 +20002,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.537478594173058</v>
+        <v>1.535069519871836</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.661137701796654</v>
@@ -20355,7 +20091,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.555567483699189</v>
+        <v>1.55495384637242</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.961370449788424</v>
@@ -20444,7 +20180,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.537381241004876</v>
+        <v>1.537359206742905</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.143330149437886</v>
@@ -20533,7 +20269,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.526411941592456</v>
+        <v>1.529007579141845</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.220083238262011</v>
@@ -20622,7 +20358,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.525831981021692</v>
+        <v>1.526477145525799</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.150809536151189</v>
@@ -20711,7 +20447,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.527732979956611</v>
+        <v>1.528700931700455</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.059354368395812</v>
@@ -20800,7 +20536,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.523892830252118</v>
+        <v>1.533015266421478</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.723937380639049</v>
@@ -20889,7 +20625,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.545842370568695</v>
+        <v>1.555141458800701</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.844863960464379</v>
@@ -20978,7 +20714,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.555670319037512</v>
+        <v>1.56663167534263</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.25670103244666</v>
@@ -21067,7 +20803,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.558390522380267</v>
+        <v>1.566024755546174</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.198789260249895</v>
@@ -21156,7 +20892,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.558893885621599</v>
+        <v>1.568122896442018</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.815724302990822</v>
@@ -21245,7 +20981,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.558287181983373</v>
+        <v>1.570614495975955</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.258054082668953</v>
@@ -21334,7 +21070,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.565314646407413</v>
+        <v>1.575714977023154</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.968880920764455</v>
@@ -21423,7 +21159,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.569234478041861</v>
+        <v>1.578583562919824</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.241217610202071</v>
@@ -21512,7 +21248,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.565682456577511</v>
+        <v>1.573200558107882</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.419134050360058</v>
@@ -21601,7 +21337,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.569626779880479</v>
+        <v>1.573282806408508</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.09602136776113</v>
@@ -21690,7 +21426,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.576225731593127</v>
+        <v>1.571302009720719</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.138794881748137</v>
@@ -21779,7 +21515,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.594099734854093</v>
+        <v>1.589260807035968</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.77583138978681</v>
@@ -21868,7 +21604,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.594573300445094</v>
+        <v>1.591158489573924</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.113526784672873</v>
@@ -21957,7 +21693,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.598896677226996</v>
+        <v>1.596722895491509</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.352681453200114</v>
@@ -22046,7 +21782,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.586620457165629</v>
+        <v>1.580502568737933</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.803403781304568</v>
@@ -22135,7 +21871,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.590755380796345</v>
+        <v>1.582244573484037</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.789945946853606</v>
@@ -22224,7 +21960,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.551655589047591</v>
+        <v>1.545210287811076</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.415299995076466</v>
@@ -22313,7 +22049,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.553217828598244</v>
+        <v>1.5465267010351</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.289335833670101</v>
@@ -22402,7 +22138,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.561784282079183</v>
+        <v>1.555948097944387</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.403348775549684</v>
@@ -22491,7 +22227,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.5543908985154</v>
+        <v>1.552134398248353</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.247969864582051</v>
@@ -22580,7 +22316,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.557021459779122</v>
+        <v>1.558018406992194</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.467228650630624</v>
@@ -22669,7 +22405,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.554415635810907</v>
+        <v>1.554563632800582</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.348525657648564</v>
@@ -22758,7 +22494,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.553324795480941</v>
+        <v>1.552863173525483</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.465407400385024</v>
@@ -22847,7 +22583,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.557504542351306</v>
+        <v>1.560245352607094</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.43284772172227</v>
@@ -22936,7 +22672,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.562634961615183</v>
+        <v>1.564780530797755</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.472965569890444</v>
@@ -23025,7 +22761,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.567386069053963</v>
+        <v>1.574067015520821</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.320539263377135</v>
@@ -23114,7 +22850,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.557912510659698</v>
+        <v>1.566744983101185</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.552532134734132</v>
@@ -23203,7 +22939,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.567831400355596</v>
+        <v>1.572818335706455</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.405402090756677</v>
@@ -23292,7 +23028,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.565018122695014</v>
+        <v>1.572356916729004</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.521302076374013</v>
@@ -23381,7 +23117,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.575315943970824</v>
+        <v>1.582699628525984</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.356599498372276</v>
@@ -23470,7 +23206,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.576175807741929</v>
+        <v>1.58713892660941</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.395578973606898</v>
@@ -23559,7 +23295,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.600417155305586</v>
+        <v>1.609800052332209</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.937050921598464</v>
@@ -23648,7 +23384,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.602725405419996</v>
+        <v>1.612008340317829</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.097509448838421</v>
@@ -23737,7 +23473,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.590407734643885</v>
+        <v>1.594269660081231</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>2.391251592917005</v>
@@ -23826,7 +23562,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.576810898488605</v>
+        <v>1.579161894059715</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.852716047297185</v>
@@ -23915,7 +23651,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.580925559116598</v>
+        <v>1.58514824334593</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>2.723416353653054</v>
@@ -24004,7 +23740,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.593985005961945</v>
+        <v>1.596461058703077</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.921276821959209</v>
@@ -24093,7 +23829,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.603272204839148</v>
+        <v>1.606064749947599</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.649075499283932</v>
@@ -24182,7 +23918,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.58299105144451</v>
+        <v>1.578228310480386</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.886456338012394</v>
@@ -24271,7 +24007,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.57473413979931</v>
+        <v>1.576075680803433</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.789069623011303</v>
@@ -24360,7 +24096,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.589988671954159</v>
+        <v>1.591447789826257</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.742583549740389</v>
@@ -24449,7 +24185,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.594521981962703</v>
+        <v>1.59639583297581</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.662773554747722</v>
@@ -24538,7 +24274,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.589777500553993</v>
+        <v>1.593827973506058</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.793070014039006</v>
@@ -24627,7 +24363,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.578323713925659</v>
+        <v>1.572890072848102</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.658042044101506</v>
@@ -24716,7 +24452,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.565285356395488</v>
+        <v>1.562870632577961</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.664415951621811</v>
@@ -24805,7 +24541,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.567479418738548</v>
+        <v>1.563998380774756</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.605497171920574</v>
@@ -24894,7 +24630,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.578257229561621</v>
+        <v>1.570294544613945</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.636788371711343</v>
@@ -24983,7 +24719,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.55557984914659</v>
+        <v>1.553430998485109</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.517421579043954</v>
@@ -25072,7 +24808,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.567910985733654</v>
+        <v>1.566384074960117</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.61537987178191</v>
@@ -25161,7 +24897,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.575245705587948</v>
+        <v>1.574499700977412</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.592329008778656</v>
@@ -25250,7 +24986,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.563346359270315</v>
+        <v>1.559177187467638</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.627895044702051</v>
@@ -25339,7 +25075,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.563560976653321</v>
+        <v>1.558620315940078</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.67812895799923</v>
@@ -25428,7 +25164,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.572595459615328</v>
+        <v>1.566671331690764</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.640254831545167</v>
@@ -25517,7 +25253,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.572659095239479</v>
+        <v>1.56797319513043</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.564283806307861</v>
@@ -25606,7 +25342,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.564188389701034</v>
+        <v>1.559229432651793</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.653129225964627</v>
@@ -25695,7 +25431,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.549559473467301</v>
+        <v>1.547588027115115</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.605761570628887</v>
@@ -25784,7 +25520,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.544081527637064</v>
+        <v>1.543086909883626</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.540377660029579</v>
@@ -26070,7 +25806,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.820045603758553</v>
+        <v>1.805876609270064</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.961463700391257</v>
@@ -26159,7 +25895,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.82463186398821</v>
+        <v>1.810583398827112</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.742552197474544</v>
@@ -26248,7 +25984,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.85826478495041</v>
+        <v>1.833199433968367</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.661544552398513</v>
@@ -26337,7 +26073,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.861093417157196</v>
+        <v>1.836936677556852</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.689803049026287</v>
@@ -26426,7 +26162,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.862676793315763</v>
+        <v>1.837340185336745</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.385607820033663</v>
@@ -26515,7 +26251,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.866283040449148</v>
+        <v>1.843743889750417</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.922366095424921</v>
@@ -26604,7 +26340,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.871343258397847</v>
+        <v>1.850660989060683</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.659826886312517</v>
@@ -26693,7 +26429,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.87108319140707</v>
+        <v>1.851669103857454</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.742934879870834</v>
@@ -26782,7 +26518,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.866502013132481</v>
+        <v>1.846785994844176</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.780762935240583</v>
@@ -26871,7 +26607,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.863462980688094</v>
+        <v>1.84248331351222</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.790234056904854</v>
@@ -26960,7 +26696,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.86420620008356</v>
+        <v>1.846530312170346</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.617605430001746</v>
@@ -27049,7 +26785,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.866554829941145</v>
+        <v>1.849917825052659</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.916899667497413</v>
@@ -27138,7 +26874,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.870178627828277</v>
+        <v>1.851926357963458</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.178097366708434</v>
@@ -27227,7 +26963,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.870501002221489</v>
+        <v>1.849178822638956</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>4.169669357131008</v>
@@ -27316,7 +27052,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.870481107987134</v>
+        <v>1.854587205969312</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.20730905144019</v>
@@ -27405,7 +27141,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.862252029894416</v>
+        <v>1.838555303418591</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.514928395285835</v>
@@ -27494,7 +27230,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.861733310629147</v>
+        <v>1.838578252803236</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.979833629591455</v>
@@ -27583,7 +27319,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.855892760781299</v>
+        <v>1.83381036423982</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.310801276552914</v>
@@ -27672,7 +27408,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.851949481537517</v>
+        <v>1.827552883780025</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.965943222970144</v>
@@ -27761,7 +27497,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.852794632812666</v>
+        <v>1.83033953092896</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>4.344226264667967</v>
@@ -27850,7 +27586,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.855634184888282</v>
+        <v>1.833995117659471</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>4.135827623339145</v>
@@ -27939,7 +27675,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.847559211009902</v>
+        <v>1.825689900756852</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>4.293359288486062</v>
@@ -28028,7 +27764,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.850486417297647</v>
+        <v>1.833915757860404</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>4.488649845779102</v>
@@ -28117,7 +27853,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.846739233938227</v>
+        <v>1.83183735383333</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>4.920272192087539</v>
@@ -28206,7 +27942,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.836470274978494</v>
+        <v>1.819182061113467</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>4.778081128228592</v>
@@ -28295,7 +28031,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.840719019139209</v>
+        <v>1.820690220957114</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>4.429588155781299</v>
@@ -28384,7 +28120,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.845851392269037</v>
+        <v>1.823096267391031</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.877287881640188</v>
@@ -28473,7 +28209,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.857681340317492</v>
+        <v>1.836056962993061</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.692499896283826</v>
@@ -28562,7 +28298,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.848130348778017</v>
+        <v>1.825496355061282</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>4.015911321681946</v>
@@ -28651,7 +28387,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.851158728377265</v>
+        <v>1.830463752399792</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.973573620586087</v>
@@ -28740,7 +28476,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.857352178824069</v>
+        <v>1.845153453817911</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>4.015636125270109</v>
@@ -28829,7 +28565,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.868041542332177</v>
+        <v>1.859023069309038</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>4.574524310778532</v>
@@ -28918,7 +28654,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.878372385373997</v>
+        <v>1.877391851539325</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>4.085030940477744</v>
@@ -29007,7 +28743,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.880770408763052</v>
+        <v>1.880632552947053</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>4.066390242215128</v>
@@ -29096,7 +28832,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.880771202883154</v>
+        <v>1.884405166243506</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>4.280878474895238</v>
@@ -29185,7 +28921,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.885914419981632</v>
+        <v>1.89259596543572</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>4.482565879578203</v>
@@ -29274,7 +29010,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.892503745376674</v>
+        <v>1.894523521428451</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.998677468011304</v>
@@ -29363,7 +29099,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.896500475000489</v>
+        <v>1.898155178123418</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>4.189179300128219</v>
@@ -29452,7 +29188,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.898534045693369</v>
+        <v>1.902054531382162</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.835120278211014</v>
@@ -29541,7 +29277,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.908125774521895</v>
+        <v>1.912932212169357</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>4.41699538611159</v>
@@ -29630,7 +29366,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.905901683803038</v>
+        <v>1.912428659639347</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.434388115979418</v>
@@ -29719,7 +29455,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.871974229783723</v>
+        <v>1.886958042441111</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.879470720871681</v>
@@ -29808,7 +29544,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.862340778313417</v>
+        <v>1.881267386636907</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.882624422138271</v>
@@ -29897,7 +29633,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.871606592152938</v>
+        <v>1.893732522680187</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.860561414007538</v>
@@ -29986,7 +29722,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.867570372529907</v>
+        <v>1.886226945565717</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.84596615415528</v>
@@ -30075,7 +29811,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.871396811649157</v>
+        <v>1.889236572328109</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.995905382561018</v>
@@ -30164,7 +29900,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.840646460179839</v>
+        <v>1.858829126230593</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.760805462368949</v>
@@ -30253,7 +29989,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.836683004181821</v>
+        <v>1.85202048400547</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.042332147452189</v>
@@ -30342,7 +30078,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.838700277484941</v>
+        <v>1.853939657038497</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.899970047578777</v>
@@ -30431,7 +30167,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.835362718966674</v>
+        <v>1.851428122774178</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.761816037453613</v>
@@ -30520,7 +30256,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.828222032343025</v>
+        <v>1.844240083128487</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.916705635613105</v>
@@ -30609,7 +30345,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.826871033212805</v>
+        <v>1.845900923383253</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.798269532131153</v>
@@ -30698,7 +30434,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.823318577864598</v>
+        <v>1.83663774224726</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.84242594557201</v>
@@ -30787,7 +30523,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.823911777429392</v>
+        <v>1.834694597728185</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.856555401974358</v>
@@ -30876,7 +30612,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.824384176145069</v>
+        <v>1.835714465019006</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.034003982053729</v>
@@ -30965,7 +30701,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.815488279583412</v>
+        <v>1.821857914007488</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.756448527111357</v>
@@ -31054,7 +30790,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.85209147213065</v>
+        <v>1.854637596496085</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.154182287128085</v>
@@ -31143,7 +30879,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.851294881155042</v>
+        <v>1.856438000123917</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.227393643486666</v>
@@ -31232,7 +30968,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.84988958476235</v>
+        <v>1.857135468772616</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.231582303435234</v>
@@ -31321,7 +31057,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.845370954606562</v>
+        <v>1.855943963617503</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.120708150415101</v>
@@ -31410,7 +31146,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.830628232676918</v>
+        <v>1.840870239819679</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.479557580242534</v>
@@ -31499,7 +31235,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.85787959743579</v>
+        <v>1.865544446708988</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.725121711109332</v>
@@ -31588,7 +31324,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.860101866277488</v>
+        <v>1.866759994446671</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>4.2665517856893</v>
@@ -31677,7 +31413,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.852014912499557</v>
+        <v>1.85755841248097</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>4.141492987935072</v>
@@ -31766,7 +31502,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.845269934250026</v>
+        <v>1.85047279982728</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.950970906631412</v>
@@ -31855,7 +31591,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.845311662238187</v>
+        <v>1.851842120498619</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>4.02542332703644</v>
@@ -31944,7 +31680,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.849154031294334</v>
+        <v>1.854665935378041</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.687777824573893</v>
@@ -32033,7 +31769,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.8476733091147</v>
+        <v>1.861679661238424</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.459442823064589</v>
@@ -32122,7 +31858,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.83188653323147</v>
+        <v>1.847571554976657</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.253236589962875</v>
@@ -32211,7 +31947,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.82981653535251</v>
+        <v>1.849451155695737</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.494514975796708</v>
@@ -32300,7 +32036,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.840263146469744</v>
+        <v>1.858785381895733</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.18566413508494</v>
@@ -32389,7 +32125,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.840425155520307</v>
+        <v>1.852796901402818</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.521823121127488</v>
@@ -32478,7 +32214,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.838585759133409</v>
+        <v>1.847163914266607</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.441531498863285</v>
@@ -32567,7 +32303,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.813709471237966</v>
+        <v>1.820262696510105</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.088067584594344</v>
@@ -32656,7 +32392,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.815305937324382</v>
+        <v>1.82255063612071</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.159976441589429</v>
@@ -32745,7 +32481,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.830759310093575</v>
+        <v>1.836478225482847</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.256572050956724</v>
@@ -32834,7 +32570,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.828296839745434</v>
+        <v>1.8296310817078</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.100536024382485</v>
@@ -32923,7 +32659,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.833237051110882</v>
+        <v>1.832458187001293</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.046726902825796</v>
@@ -33012,7 +32748,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.834260598651977</v>
+        <v>1.837069593338051</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.299371382967737</v>
@@ -33101,7 +32837,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.832611246945134</v>
+        <v>1.836690259343601</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.173770312289305</v>
@@ -33190,7 +32926,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.827961425926139</v>
+        <v>1.830809082181932</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.294927998783381</v>
@@ -33279,7 +33015,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.823911508480384</v>
+        <v>1.823857322908095</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.284186808182806</v>
@@ -33368,7 +33104,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.825991058735372</v>
+        <v>1.825719429168546</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.140824254847054</v>
@@ -33457,7 +33193,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.840539487184925</v>
+        <v>1.836953237110732</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.286261727895914</v>
@@ -33546,7 +33282,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.838550008725428</v>
+        <v>1.8345846624249</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.174585989631731</v>
@@ -33635,7 +33371,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.838864287024262</v>
+        <v>1.838429961663264</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>3.2352690001615</v>
@@ -33724,7 +33460,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.835975278843149</v>
+        <v>1.835424602083404</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.263736483769586</v>
@@ -34010,7 +33746,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.862848348390572</v>
+        <v>1.838378228322468</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.288856302291331</v>
@@ -34099,7 +33835,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.864116630366315</v>
+        <v>1.840457586292358</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.362460992595177</v>
@@ -34188,7 +33924,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.895160704112494</v>
+        <v>1.869890866099888</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.441254230918628</v>
@@ -34277,7 +34013,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.897081828266212</v>
+        <v>1.868944778824154</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.188179331996648</v>
@@ -34366,7 +34102,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.898303370685319</v>
+        <v>1.872747839857361</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.011094552313693</v>
@@ -34455,7 +34191,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.90557811956102</v>
+        <v>1.883261307259628</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.329763002825799</v>
@@ -34544,7 +34280,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.913860060530709</v>
+        <v>1.890585990313919</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.998841436826437</v>
@@ -34633,7 +34369,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.921459450707147</v>
+        <v>1.898025329209039</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.704668479254545</v>
@@ -34722,7 +34458,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.920123961048725</v>
+        <v>1.892231777850737</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.663144191868703</v>
@@ -34811,7 +34547,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.917885447775819</v>
+        <v>1.881875617311056</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.462217685857816</v>
@@ -34900,7 +34636,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.924991178640482</v>
+        <v>1.889051658085645</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.367236778088042</v>
@@ -34989,7 +34725,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.922333043728558</v>
+        <v>1.882856336603197</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.315976804218488</v>
@@ -35078,7 +34814,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.916031771069234</v>
+        <v>1.878994274762209</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>4.026550875467696</v>
@@ -35167,7 +34903,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.917846938507235</v>
+        <v>1.879036523455487</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.571201645573943</v>
@@ -35256,7 +34992,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.919926464117478</v>
+        <v>1.88105200225504</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>4.054679010151239</v>
@@ -35345,7 +35081,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.90573989526951</v>
+        <v>1.858065544862122</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.918693840164496</v>
@@ -35434,7 +35170,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.9112969183059</v>
+        <v>1.861215574698866</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.80968684331669</v>
@@ -35523,7 +35259,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.905593431707601</v>
+        <v>1.852161747116602</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>4.407459822692807</v>
@@ -35612,7 +35348,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.893971620390679</v>
+        <v>1.846514272329827</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.387567937553463</v>
@@ -35701,7 +35437,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.887872404643096</v>
+        <v>1.839606496839338</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.524911900052306</v>
@@ -35790,7 +35526,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.881684689383332</v>
+        <v>1.838479079751343</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.275675363788794</v>
@@ -35879,7 +35615,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.876216325506451</v>
+        <v>1.837345486879117</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.531126235915422</v>
@@ -35968,7 +35704,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.868251150077397</v>
+        <v>1.830457847026574</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.257601093453069</v>
@@ -36057,7 +35793,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.860391833820995</v>
+        <v>1.827615234470477</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.737501580364547</v>
@@ -36146,7 +35882,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.852212075915644</v>
+        <v>1.820014284462514</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.277361429753038</v>
@@ -36235,7 +35971,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.855871805073597</v>
+        <v>1.823273691704989</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.571153800355825</v>
@@ -36324,7 +36060,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.859118586479923</v>
+        <v>1.825917591014793</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.800021992861777</v>
@@ -36413,7 +36149,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.865143650938844</v>
+        <v>1.83088486889241</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.273071054729208</v>
@@ -36502,7 +36238,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.857303661944529</v>
+        <v>1.820640519821339</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.274275079750569</v>
@@ -36591,7 +36327,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.863312039545804</v>
+        <v>1.835476331431573</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.127368521229618</v>
@@ -36680,7 +36416,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.88267870339602</v>
+        <v>1.867606089868621</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.108254379791191</v>
@@ -36769,7 +36505,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.885516202161397</v>
+        <v>1.873184108914987</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.195089575609778</v>
@@ -36858,7 +36594,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.888649912961705</v>
+        <v>1.879607041951912</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.575839805357673</v>
@@ -36947,7 +36683,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.894276205098904</v>
+        <v>1.884643806115317</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.406435758328847</v>
@@ -37036,7 +36772,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.900515383450506</v>
+        <v>1.897704457365965</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.846621858149109</v>
@@ -37125,7 +36861,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.905360257018343</v>
+        <v>1.906498030606538</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.551592701749656</v>
@@ -37214,7 +36950,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.909751731297427</v>
+        <v>1.906715790845218</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.276271096545107</v>
@@ -37303,7 +37039,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.91926397361248</v>
+        <v>1.918960785236509</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.379337278835084</v>
@@ -37392,7 +37128,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.919126129289544</v>
+        <v>1.92281191485167</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.399263127621877</v>
@@ -37481,7 +37217,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.928081561923681</v>
+        <v>1.931153071685457</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.454217590167854</v>
@@ -37570,7 +37306,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.931429206491816</v>
+        <v>1.935443896356682</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>4.050878772914854</v>
@@ -37659,7 +37395,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.929184232708853</v>
+        <v>1.935130979044527</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>4.06723845356983</v>
@@ -37748,7 +37484,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.930306417002612</v>
+        <v>1.936623924444029</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.48881131671881</v>
@@ -37837,7 +37573,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.938566786472192</v>
+        <v>1.949604614987695</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.483979007653026</v>
@@ -37926,7 +37662,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.935336766935311</v>
+        <v>1.94024224676704</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.582268123142268</v>
@@ -38015,7 +37751,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.931247331871111</v>
+        <v>1.936020636433935</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.618506338930066</v>
@@ -38104,7 +37840,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.91159659869676</v>
+        <v>1.91946247670493</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.765168113637209</v>
@@ -38193,7 +37929,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.901644086289384</v>
+        <v>1.909587408263426</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>4.007428547959116</v>
@@ -38282,7 +38018,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.905720410987158</v>
+        <v>1.912263011352488</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.339470309868869</v>
@@ -38371,7 +38107,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.902615424632242</v>
+        <v>1.90644775107437</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.814141500943071</v>
@@ -38460,7 +38196,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.899194073267619</v>
+        <v>1.897488081880568</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.732060117011152</v>
@@ -38549,7 +38285,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.901730975134111</v>
+        <v>1.893909487478291</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.336446001682528</v>
@@ -38638,7 +38374,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.894124333895965</v>
+        <v>1.888201650201729</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.341952225339939</v>
@@ -38727,7 +38463,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.893668004607115</v>
+        <v>1.886501105551992</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.343954659054293</v>
@@ -38816,7 +38552,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.893317606776142</v>
+        <v>1.889391311140087</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>4.005195353842679</v>
@@ -38905,7 +38641,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.875750077380165</v>
+        <v>1.870006651116508</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.584748190939612</v>
@@ -38994,7 +38730,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.876559755336162</v>
+        <v>1.869343172838073</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.339218647589605</v>
@@ -39083,7 +38819,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.880136563744171</v>
+        <v>1.873828759776334</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.521807651228709</v>
@@ -39172,7 +38908,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.881193112920947</v>
+        <v>1.875233426129242</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.542231771682433</v>
@@ -39261,7 +38997,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.865341071442778</v>
+        <v>1.863677646058973</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.597568196728903</v>
@@ -39350,7 +39086,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.854634823052147</v>
+        <v>1.848327767290196</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.837059461606263</v>
@@ -39439,7 +39175,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.871922853640062</v>
+        <v>1.863418626741137</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.730093405534836</v>
@@ -39528,7 +39264,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.882831655340329</v>
+        <v>1.86950809376625</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.498232905912285</v>
@@ -39617,7 +39353,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.876020065092714</v>
+        <v>1.863461805513028</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.970401471967306</v>
@@ -39706,7 +39442,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.863061927553929</v>
+        <v>1.856821153541797</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.627309208063426</v>
@@ -39795,7 +39531,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.86249961780729</v>
+        <v>1.862093560044351</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.701077116087598</v>
@@ -39884,7 +39620,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.865179839101216</v>
+        <v>1.869033338149866</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>4.058531970113443</v>
@@ -39973,7 +39709,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.868585133146457</v>
+        <v>1.873377708606405</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.250139165431806</v>
@@ -40062,7 +39798,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.867715553394405</v>
+        <v>1.871924461553858</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.548526940350909</v>
@@ -40151,7 +39887,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.86985147193469</v>
+        <v>1.870048774170925</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>3.568293741979895</v>
@@ -40240,7 +39976,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.879850548052079</v>
+        <v>1.877381259118507</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.146191306522439</v>
@@ -40329,7 +40065,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.88093371358239</v>
+        <v>1.882541781544744</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>3.496849575151519</v>
@@ -40418,7 +40154,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.873750803668385</v>
+        <v>1.870135709447096</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.487988043241389</v>
@@ -40507,7 +40243,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.85921954849241</v>
+        <v>1.853138586691867</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>3.26700071582541</v>
@@ -40596,7 +40332,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.868378883752265</v>
+        <v>1.865097411634914</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>3.634454418803552</v>
@@ -40685,7 +40421,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.879085357686145</v>
+        <v>1.873389122677869</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>3.398643646046344</v>
@@ -40774,7 +40510,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.875926980307223</v>
+        <v>1.867339448893781</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>3.758383470521522</v>
@@ -40863,7 +40599,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.865245369943816</v>
+        <v>1.856432044299926</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.387034637941412</v>
@@ -40952,7 +40688,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.860562297045132</v>
+        <v>1.850036171640982</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>3.754077601421877</v>
@@ -41041,7 +40777,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.866220479336799</v>
+        <v>1.851135085397294</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.265671923527649</v>
@@ -41130,7 +40866,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.865561357024615</v>
+        <v>1.850499998934441</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>3.456911778537951</v>
@@ -41219,7 +40955,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.85732698613593</v>
+        <v>1.839736724417542</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>3.667377696048764</v>
@@ -41308,7 +41044,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.863699544353555</v>
+        <v>1.846604425877843</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>3.782291191245381</v>
@@ -41397,7 +41133,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.861328554707045</v>
+        <v>1.84170665437048</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>3.397923344447606</v>
@@ -41486,7 +41222,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.86071936159083</v>
+        <v>1.844822133929708</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>3.377519512643373</v>
@@ -41575,7 +41311,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.871486763067488</v>
+        <v>1.852906521068352</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>4.021920114701924</v>
@@ -41664,7 +41400,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.864347979779011</v>
+        <v>1.841656184508629</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>3.724540510976311</v>
@@ -41950,7 +41686,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.287749613574132</v>
+        <v>1.299685801542907</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.487766432897146</v>
@@ -42039,7 +41775,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.300720816617098</v>
+        <v>1.316471385845284</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.491050292076304</v>
@@ -42128,7 +41864,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.478813937676813</v>
+        <v>1.515371123983517</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.893319945268352</v>
@@ -42217,7 +41953,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.534689800068798</v>
+        <v>1.571825422121213</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.357611135393434</v>
@@ -42306,7 +42042,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.548860372746899</v>
+        <v>1.586696911286716</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.501983896654029</v>
@@ -42395,7 +42131,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579146583019469</v>
+        <v>1.619360236422055</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.557931918822511</v>
@@ -42484,7 +42220,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.599358184786171</v>
+        <v>1.633048646516563</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.584817142520479</v>
@@ -42573,7 +42309,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.607895822808997</v>
+        <v>1.640736155166442</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.734765036442625</v>
@@ -42662,7 +42398,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.617584145006241</v>
+        <v>1.649119511615945</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.721395572473244</v>
@@ -42751,7 +42487,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.635360240174057</v>
+        <v>1.664504593612578</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.460210100853978</v>
@@ -42840,7 +42576,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.62426078886204</v>
+        <v>1.649496376933347</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.558616105955915</v>
@@ -42929,7 +42665,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.636138180811278</v>
+        <v>1.656618194476398</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.800915068453274</v>
@@ -43018,7 +42754,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.684069200772012</v>
+        <v>1.685727027663498</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.750970301879121</v>
@@ -43107,7 +42843,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.680965763681309</v>
+        <v>1.684758595008641</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.057660974891665</v>
@@ -43196,7 +42932,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.677467382949161</v>
+        <v>1.679996654121605</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.156993178294624</v>
@@ -43285,7 +43021,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.660271398086847</v>
+        <v>1.661220023125875</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.089269702685533</v>
@@ -43374,7 +43110,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.655640824703696</v>
+        <v>1.654643123951146</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.341931116842614</v>
@@ -43463,7 +43199,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.656002322690148</v>
+        <v>1.652119977970118</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.224009428512741</v>
@@ -43552,7 +43288,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.650829149617241</v>
+        <v>1.645534458800421</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.193405741484934</v>
@@ -43641,7 +43377,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.644034513664116</v>
+        <v>1.635380046936477</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.149855140358699</v>
@@ -43730,7 +43466,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.6414069949523</v>
+        <v>1.637755723236394</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.265276488478901</v>
@@ -43819,7 +43555,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.630516879542076</v>
+        <v>1.62955919636183</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.199056797286999</v>
@@ -43908,7 +43644,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.626027698127297</v>
+        <v>1.631126599052254</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.103224308996223</v>
@@ -43997,7 +43733,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.619678665686573</v>
+        <v>1.623161538593123</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.169890502826607</v>
@@ -44086,7 +43822,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.618495698817173</v>
+        <v>1.621785127372957</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.152773519910482</v>
@@ -44175,7 +43911,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.615180880903692</v>
+        <v>1.619041786378407</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.459354546957744</v>
@@ -44264,7 +44000,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.615518010387571</v>
+        <v>1.616939931347979</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.460936193891122</v>
@@ -44353,7 +44089,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.619702661307014</v>
+        <v>1.623453471380234</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.488876350732149</v>
@@ -44442,7 +44178,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.616787569348527</v>
+        <v>1.618237356792628</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.489043736775781</v>
@@ -44531,7 +44267,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.618910203655508</v>
+        <v>1.62355444888564</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.620853101740811</v>
@@ -44620,7 +44356,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.630656061816761</v>
+        <v>1.635541545340843</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.302239859750804</v>
@@ -44709,7 +44445,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.618489520565788</v>
+        <v>1.624480133101693</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.371964527766804</v>
@@ -44798,7 +44534,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.611214614579952</v>
+        <v>1.618108474051551</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.393010214749713</v>
@@ -44887,7 +44623,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.594251275279148</v>
+        <v>1.603713089241173</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.501496033191809</v>
@@ -44976,7 +44712,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.603860131297669</v>
+        <v>1.61046982997509</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.697163441249431</v>
@@ -45065,7 +44801,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.598575634081258</v>
+        <v>1.607275688864914</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.440921106906165</v>
@@ -45154,7 +44890,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.6068173189902</v>
+        <v>1.615033288169276</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.449575101628785</v>
@@ -45243,7 +44979,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601718413028227</v>
+        <v>1.609709588688661</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.465384897482301</v>
@@ -45332,7 +45068,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.603703153813839</v>
+        <v>1.611360333418028</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.443171530206597</v>
@@ -45421,7 +45157,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.611547307377803</v>
+        <v>1.620385601594317</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.528589311665435</v>
@@ -45510,7 +45246,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.649033671111366</v>
+        <v>1.653510769601066</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.68164545706094</v>
@@ -45599,7 +45335,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.659363798536833</v>
+        <v>1.669656690514975</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.070417028483823</v>
@@ -45688,7 +45424,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.661603062751197</v>
+        <v>1.67448769531925</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.501204948724792</v>
@@ -45777,7 +45513,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.678958566149392</v>
+        <v>1.690136629860471</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.254740173656597</v>
@@ -45866,7 +45602,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.671702618782287</v>
+        <v>1.681284212843736</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.36568625595702</v>
@@ -45955,7 +45691,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.688378195747083</v>
+        <v>1.700211377645177</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.280404539717533</v>
@@ -46044,7 +45780,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.664135944443488</v>
+        <v>1.677759853805972</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.591732405843149</v>
@@ -46133,7 +45869,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.667032816518345</v>
+        <v>1.6822204638621</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.406274891675385</v>
@@ -46222,7 +45958,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.678923121197807</v>
+        <v>1.691687427869493</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.661356819207652</v>
@@ -46311,7 +46047,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.678683742608889</v>
+        <v>1.694092794022117</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.525300578817276</v>
@@ -46400,7 +46136,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.677528993277911</v>
+        <v>1.693853845401092</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.721424459156657</v>
@@ -46489,7 +46225,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.684003451592342</v>
+        <v>1.70118590527115</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.535002989830277</v>
@@ -46578,7 +46314,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.685118761643387</v>
+        <v>1.7033578718907</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.732504849941772</v>
@@ -46667,7 +46403,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.684074475092465</v>
+        <v>1.703260689555006</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>2.645202538619987</v>
@@ -46756,7 +46492,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.677428159491136</v>
+        <v>1.695360794446338</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>2.70861228230737</v>
@@ -46845,7 +46581,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.655711087132877</v>
+        <v>1.671966598598577</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>2.506987180138903</v>
@@ -46934,7 +46670,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.657536824446842</v>
+        <v>1.670701272736867</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>2.679745217346886</v>
@@ -47023,7 +46759,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.628647945039094</v>
+        <v>1.644520618854392</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>2.609984712153111</v>
@@ -47112,7 +46848,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.627511266739781</v>
+        <v>1.640220621463496</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>2.647250447746736</v>
@@ -47201,7 +46937,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.625041147464177</v>
+        <v>1.636449003185662</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>2.649601622387281</v>
@@ -47290,7 +47026,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.613558378750324</v>
+        <v>1.625048895686443</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>2.548870884936641</v>
@@ -47379,7 +47115,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.639264541738188</v>
+        <v>1.64506558671411</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>2.986445263769743</v>
@@ -47468,7 +47204,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.653342734913862</v>
+        <v>1.661499006959358</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>2.995747922354401</v>
@@ -47557,7 +47293,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.6456263951941</v>
+        <v>1.652497051664492</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.077555744666694</v>
@@ -47646,7 +47382,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.632023311723951</v>
+        <v>1.637012084655343</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>2.973792514061996</v>
@@ -47735,7 +47471,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.630018901572961</v>
+        <v>1.633502284377983</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.030385445244782</v>
@@ -47824,7 +47560,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.625371069417034</v>
+        <v>1.627826031766431</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>3.061012960351514</v>
@@ -47913,7 +47649,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.634280917635796</v>
+        <v>1.633444493380388</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>2.979025378943301</v>
@@ -48002,7 +47738,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.630177553099044</v>
+        <v>1.623966605187362</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>2.948697461205177</v>
@@ -48091,7 +47827,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.631366313370213</v>
+        <v>1.628067426138568</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.844701875210581</v>
@@ -48180,7 +47916,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.644417813606467</v>
+        <v>1.636079897645028</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>3.045345835618173</v>
@@ -48269,7 +48005,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.652201519224034</v>
+        <v>1.648573697181039</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.814102962461805</v>
@@ -48358,7 +48094,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.678288255085861</v>
+        <v>1.668436831769989</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>2.818632900315706</v>
@@ -48447,7 +48183,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.649038343103911</v>
+        <v>1.6354316626149</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.523919843025034</v>
@@ -48536,7 +48272,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.627625008197143</v>
+        <v>1.627501027710426</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.463608690978794</v>
@@ -48625,7 +48361,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.63614925927505</v>
+        <v>1.634735651072605</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.438340683327193</v>
@@ -48714,7 +48450,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.632075343690353</v>
+        <v>1.628311604931843</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.425715406904594</v>
@@ -48803,7 +48539,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.614701029064142</v>
+        <v>1.610801966293469</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>2.480058702453688</v>
@@ -48892,7 +48628,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.623951983468396</v>
+        <v>1.619330348482732</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.388414189373784</v>
@@ -48981,7 +48717,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.632551453040798</v>
+        <v>1.629600570870354</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>2.473141636502127</v>
@@ -49070,7 +48806,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.626875034498782</v>
+        <v>1.623679204947638</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.370166697108363</v>
@@ -49159,7 +48895,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.635145641233466</v>
+        <v>1.632018749191277</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.414432459149257</v>
@@ -49248,7 +48984,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.637831990927392</v>
+        <v>1.635692558589782</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.473922784415167</v>
@@ -49337,7 +49073,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.628640936082415</v>
+        <v>1.6300085602005</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.418961289950284</v>
@@ -49426,7 +49162,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.624773482208118</v>
+        <v>1.628664870930767</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.401530928974573</v>
@@ -49515,7 +49251,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.632311956596329</v>
+        <v>1.639066327136939</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.405413614581444</v>
@@ -49604,7 +49340,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.618564454635583</v>
+        <v>1.6254447564909</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.448623312472443</v>
@@ -49890,7 +49626,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.72335621008387</v>
+        <v>1.751863880547111</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.7680372833012</v>
@@ -49979,7 +49715,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.724719538179568</v>
+        <v>1.75489013091071</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.811188202872469</v>
@@ -50068,7 +49804,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.793813549318015</v>
+        <v>1.818482731158276</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.506071587002003</v>
@@ -50157,7 +49893,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.79724808201065</v>
+        <v>1.817698514854946</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.046159251283679</v>
@@ -50246,7 +49982,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.792808994912499</v>
+        <v>1.818739277629418</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.910631575154053</v>
@@ -50335,7 +50071,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.812771535064864</v>
+        <v>1.833701199352161</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.98546162889025</v>
@@ -50424,7 +50160,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.82508928512455</v>
+        <v>1.849803154604022</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.285081996853268</v>
@@ -50513,7 +50249,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.84107502249958</v>
+        <v>1.859985248398504</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.78474983459609</v>
@@ -50602,7 +50338,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.842941528719341</v>
+        <v>1.861961291296554</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.152649356464521</v>
@@ -50691,7 +50427,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.846118747830587</v>
+        <v>1.86024760241168</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.721475055681299</v>
@@ -50780,7 +50516,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.868260931533463</v>
+        <v>1.879866622409743</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.286918640245418</v>
@@ -50869,7 +50605,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.864864650077751</v>
+        <v>1.875071704457163</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.200211856390403</v>
@@ -50958,7 +50694,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.864266935673232</v>
+        <v>1.873853956058738</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.003484590635497</v>
@@ -51047,7 +50783,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.861257441566102</v>
+        <v>1.870572757484016</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.98018841051184</v>
@@ -51136,7 +50872,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.88078713935865</v>
+        <v>1.884088395355588</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.009936014008826</v>
@@ -51225,7 +50961,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.853164337755389</v>
+        <v>1.852415496312473</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.83941680462361</v>
@@ -51314,7 +51050,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.875804600035897</v>
+        <v>1.865946571962592</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.068268180209871</v>
@@ -51403,7 +51139,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.867662213750202</v>
+        <v>1.85230205113805</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.089463983489991</v>
@@ -51492,7 +51228,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.841540382458972</v>
+        <v>1.833347438889025</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.076553517845529</v>
@@ -51581,7 +51317,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.844596507679104</v>
+        <v>1.834180658231905</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.197184303349747</v>
@@ -51670,7 +51406,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.845205931388525</v>
+        <v>1.8370515311366</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.345555780125443</v>
@@ -51759,7 +51495,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.835353886432414</v>
+        <v>1.828847298553362</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.179938027008113</v>
@@ -51848,7 +51584,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.817928722451439</v>
+        <v>1.811834604723757</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.070870464821605</v>
@@ -51937,7 +51673,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.815019353234157</v>
+        <v>1.810490730020903</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.945105595046401</v>
@@ -52026,7 +51762,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.814038957856702</v>
+        <v>1.811653600075591</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.165334284900734</v>
@@ -52115,7 +51851,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.81645012978577</v>
+        <v>1.8122414273126</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.063159024776172</v>
@@ -52204,7 +51940,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.822956616328143</v>
+        <v>1.819562417485818</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.094104526517806</v>
@@ -52293,7 +52029,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.836876300123992</v>
+        <v>1.831704801782411</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.895186095259458</v>
@@ -52382,7 +52118,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.811351365147355</v>
+        <v>1.811303446940108</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.182828196503177</v>
@@ -52471,7 +52207,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.816447881765989</v>
+        <v>1.822801128769612</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.758123714201842</v>
@@ -52560,7 +52296,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.845663469066875</v>
+        <v>1.859459978423394</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.170528717907602</v>
@@ -52649,7 +52385,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.849198832926272</v>
+        <v>1.867335671159582</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.253697829806618</v>
@@ -52738,7 +52474,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.852419761004543</v>
+        <v>1.875600636319227</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.420864723738443</v>
@@ -52827,7 +52563,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.881605886263136</v>
+        <v>1.899933754613645</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.130655970692108</v>
@@ -52916,7 +52652,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.891247945213894</v>
+        <v>1.914313888381268</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.206891057033264</v>
@@ -53005,7 +52741,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.894081251961846</v>
+        <v>1.918588312640081</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.159826412394397</v>
@@ -53094,7 +52830,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.893770620023083</v>
+        <v>1.916678978105875</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.867692141704776</v>
@@ -53183,7 +52919,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.911752619701518</v>
+        <v>1.937620710554404</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.149702905553117</v>
@@ -53272,7 +53008,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.910851075049015</v>
+        <v>1.941741862128516</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.008962951622153</v>
@@ -53361,7 +53097,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.912410496040625</v>
+        <v>1.939432536609452</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.192010342758357</v>
@@ -53450,7 +53186,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.914812376499819</v>
+        <v>1.944995648445017</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.047260337197782</v>
@@ -53539,7 +53275,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.888996891066794</v>
+        <v>1.926416899998345</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.177685277004967</v>
@@ -53628,7 +53364,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.888694039094902</v>
+        <v>1.926291820685321</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.201663369150012</v>
@@ -53717,7 +53453,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.929349513337606</v>
+        <v>1.963472568961855</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.176599380506521</v>
@@ -53806,7 +53542,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.926699234785171</v>
+        <v>1.954761475130181</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.135793476404333</v>
@@ -53895,7 +53631,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.92495659219164</v>
+        <v>1.951171382687627</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.180852917057051</v>
@@ -53984,7 +53720,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.915449313205915</v>
+        <v>1.945165937026738</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.120875088428685</v>
@@ -54073,7 +53809,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.887558622795753</v>
+        <v>1.917973372301756</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.192413479659593</v>
@@ -54162,7 +53898,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.888646695797151</v>
+        <v>1.923919500972079</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.359913173856355</v>
@@ -54251,7 +53987,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.879831841846753</v>
+        <v>1.912576915435078</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.111833051852714</v>
@@ -54340,7 +54076,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.876531245947991</v>
+        <v>1.905913131041382</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.057914135031375</v>
@@ -54429,7 +54165,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.894007081010943</v>
+        <v>1.915984965028399</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>3.267661530547961</v>
@@ -54518,7 +54254,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.878452902816543</v>
+        <v>1.904840968488907</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>3.261841406134526</v>
@@ -54607,7 +54343,7 @@
         <v>68</v>
       </c>
       <c r="B55" s="2" t="n">
-        <v>1.880732514500727</v>
+        <v>1.901935550699476</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>3.429046110902209</v>
@@ -54696,7 +54432,7 @@
         <v>69</v>
       </c>
       <c r="B56" s="2" t="n">
-        <v>1.878801795023845</v>
+        <v>1.906376672815994</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>3.108996634586214</v>
@@ -54785,7 +54521,7 @@
         <v>70</v>
       </c>
       <c r="B57" s="2" t="n">
-        <v>1.833987677390297</v>
+        <v>1.863868991598537</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>3.200139698242222</v>
@@ -54874,7 +54610,7 @@
         <v>71</v>
       </c>
       <c r="B58" s="2" t="n">
-        <v>1.849786502910394</v>
+        <v>1.874927508578521</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>3.430421527177598</v>
@@ -54963,7 +54699,7 @@
         <v>72</v>
       </c>
       <c r="B59" s="2" t="n">
-        <v>1.849918173622651</v>
+        <v>1.874612040192703</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>3.257501549861679</v>
@@ -55052,7 +54788,7 @@
         <v>73</v>
       </c>
       <c r="B60" s="2" t="n">
-        <v>1.846686188356248</v>
+        <v>1.872857113502139</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>3.241819648557028</v>
@@ -55141,7 +54877,7 @@
         <v>74</v>
       </c>
       <c r="B61" s="2" t="n">
-        <v>1.811024955072623</v>
+        <v>1.84579754733691</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>3.191382972826648</v>
@@ -55230,7 +54966,7 @@
         <v>75</v>
       </c>
       <c r="B62" s="2" t="n">
-        <v>1.795677961352574</v>
+        <v>1.827319575164735</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>3.102703476356877</v>
@@ -55319,7 +55055,7 @@
         <v>76</v>
       </c>
       <c r="B63" s="2" t="n">
-        <v>1.792831549156284</v>
+        <v>1.825518414050238</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>3.131910950511381</v>
@@ -55408,7 +55144,7 @@
         <v>77</v>
       </c>
       <c r="B64" s="2" t="n">
-        <v>1.816861096268623</v>
+        <v>1.846895429698969</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>3.110802765634605</v>
@@ -55497,7 +55233,7 @@
         <v>78</v>
       </c>
       <c r="B65" s="2" t="n">
-        <v>1.820064627248728</v>
+        <v>1.846204085262993</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>3.075604712148096</v>
@@ -55586,7 +55322,7 @@
         <v>79</v>
       </c>
       <c r="B66" s="2" t="n">
-        <v>1.795272355956064</v>
+        <v>1.82615296218477</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>3.072130731193857</v>
@@ -55675,7 +55411,7 @@
         <v>80</v>
       </c>
       <c r="B67" s="2" t="n">
-        <v>1.797368760460969</v>
+        <v>1.833605149132917</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>3.041709401656116</v>
@@ -55764,7 +55500,7 @@
         <v>81</v>
       </c>
       <c r="B68" s="2" t="n">
-        <v>1.796216007445552</v>
+        <v>1.835419948718131</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>2.927915399047126</v>
@@ -55853,7 +55589,7 @@
         <v>82</v>
       </c>
       <c r="B69" s="2" t="n">
-        <v>1.806085860298971</v>
+        <v>1.842784045322079</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>3.04913219984896</v>
@@ -55942,7 +55678,7 @@
         <v>83</v>
       </c>
       <c r="B70" s="2" t="n">
-        <v>1.80572240516227</v>
+        <v>1.844033229326668</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>3.104392085309549</v>
@@ -56031,7 +55767,7 @@
         <v>84</v>
       </c>
       <c r="B71" s="2" t="n">
-        <v>1.80548092150537</v>
+        <v>1.841770443657978</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>2.775215878189422</v>
@@ -56120,7 +55856,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="2" t="n">
-        <v>1.832555937318853</v>
+        <v>1.865479245249294</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>2.891869151248116</v>
@@ -56209,7 +55945,7 @@
         <v>86</v>
       </c>
       <c r="B73" s="2" t="n">
-        <v>1.83033878210594</v>
+        <v>1.864622504564923</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>2.937898449860359</v>
@@ -56298,7 +56034,7 @@
         <v>87</v>
       </c>
       <c r="B74" s="2" t="n">
-        <v>1.82891191032696</v>
+        <v>1.859557415905486</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>3.488147449309104</v>
@@ -56387,7 +56123,7 @@
         <v>88</v>
       </c>
       <c r="B75" s="2" t="n">
-        <v>1.820343546847878</v>
+        <v>1.844604630841568</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>2.916044034314258</v>
@@ -56476,7 +56212,7 @@
         <v>89</v>
       </c>
       <c r="B76" s="2" t="n">
-        <v>1.853482803885943</v>
+        <v>1.87245223620744</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>2.765181532834725</v>
@@ -56565,7 +56301,7 @@
         <v>90</v>
       </c>
       <c r="B77" s="2" t="n">
-        <v>1.876569988947442</v>
+        <v>1.889624870586461</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>2.696901613548516</v>
@@ -56654,7 +56390,7 @@
         <v>91</v>
       </c>
       <c r="B78" s="2" t="n">
-        <v>1.872114902357308</v>
+        <v>1.878439335131772</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>2.760008396620823</v>
@@ -56743,7 +56479,7 @@
         <v>92</v>
       </c>
       <c r="B79" s="2" t="n">
-        <v>1.849752015854725</v>
+        <v>1.860607582911231</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>3.042379394642652</v>
@@ -56832,7 +56568,7 @@
         <v>93</v>
       </c>
       <c r="B80" s="2" t="n">
-        <v>1.806345053558587</v>
+        <v>1.821505511140641</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>2.800526330889328</v>
@@ -56921,7 +56657,7 @@
         <v>94</v>
       </c>
       <c r="B81" s="2" t="n">
-        <v>1.799420058726365</v>
+        <v>1.818444466327761</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>3.02704253039066</v>
@@ -57010,7 +56746,7 @@
         <v>95</v>
       </c>
       <c r="B82" s="2" t="n">
-        <v>1.791112926451542</v>
+        <v>1.81185682565122</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>2.876020722550911</v>
@@ -57099,7 +56835,7 @@
         <v>96</v>
       </c>
       <c r="B83" s="2" t="n">
-        <v>1.788128053083247</v>
+        <v>1.806623883918678</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>2.835511095601994</v>
@@ -57188,7 +56924,7 @@
         <v>97</v>
       </c>
       <c r="B84" s="2" t="n">
-        <v>1.794150600319136</v>
+        <v>1.812298641055778</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>2.747551511898738</v>
@@ -57277,7 +57013,7 @@
         <v>98</v>
       </c>
       <c r="B85" s="2" t="n">
-        <v>1.789938317485737</v>
+        <v>1.809807056888402</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>2.843240259626452</v>
@@ -57366,7 +57102,7 @@
         <v>99</v>
       </c>
       <c r="B86" s="2" t="n">
-        <v>1.794115828881929</v>
+        <v>1.813958411451148</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>2.699194356834353</v>
@@ -57455,7 +57191,7 @@
         <v>100</v>
       </c>
       <c r="B87" s="2" t="n">
-        <v>1.818692478879411</v>
+        <v>1.835735489824672</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>2.76964158818403</v>
@@ -57544,7 +57280,7 @@
         <v>101</v>
       </c>
       <c r="B88" s="2" t="n">
-        <v>1.818654882844376</v>
+        <v>1.835448310912316</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>2.804901922146307</v>
